--- a/filetiendo.xlsx
+++ b/filetiendo.xlsx
@@ -4770,15 +4770,15 @@
       </c>
       <c r="E5">
         <f>VLOOKUP(C5,GBOC!$E$7:$DG$29,$B$20,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <f>IFERROR(E5/D5,0)</f>
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="G5">
         <f>D5-E5</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(C5,'Giao CT'!$D$6:$S$20,4,0)</f>
@@ -4897,16 +4897,15 @@
         <v>4</v>
       </c>
       <c r="AK5">
-        <f>VLOOKUP(C5,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL5">
         <f>200%-IFERROR(AK5/AJ5,0)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AM5">
         <f>MAX(AL5,0)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AN5">
         <f>VLOOKUP(C5,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -4914,15 +4913,15 @@
       </c>
       <c r="AO5">
         <f>VLOOKUP(C5,GBOC!$E$7:$DG$29,$B$29,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <f>200%-IFERROR(AO5/AN5,0)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <f>MAX(AP5,0)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0.97</v>
@@ -5131,16 +5130,15 @@
         <v>4</v>
       </c>
       <c r="AK6">
-        <f>VLOOKUP(C6,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL6">
         <f>200%-IFERROR(AK6/AJ6,0)</f>
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="AM6">
         <f>MAX(AL6,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <f>VLOOKUP(C6,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -5365,7 +5363,6 @@
         <v>4</v>
       </c>
       <c r="AK7">
-        <f>VLOOKUP(C7,GBOC!$E$7:$DG$29,$B$28,0)</f>
         <v>0</v>
       </c>
       <c r="AL7">
@@ -5599,16 +5596,15 @@
         <v>4</v>
       </c>
       <c r="AK8">
-        <f>VLOOKUP(C8,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL8">
         <f>200%-IFERROR(AK8/AJ8,0)</f>
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AM8">
         <f>MAX(AL8,0)</f>
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AN8">
         <f>VLOOKUP(C8,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -5786,15 +5782,15 @@
       </c>
       <c r="Y9">
         <f>VLOOKUP(C9,GBOC!$E$7:$DG$29,$B$25,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z9">
         <f>IFERROR(Y9/X9,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA9">
         <f>X9-Y9</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="AB9">
         <f>VLOOKUP(C9,'Giao CT'!$D$6:$S$20,9,0)</f>
@@ -5833,16 +5829,15 @@
         <v>3</v>
       </c>
       <c r="AK9">
-        <f>VLOOKUP(C9,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL9">
         <f>200%-IFERROR(AK9/AJ9,0)</f>
-        <v>2</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="AM9">
         <f>MAX(AL9,0)</f>
-        <v>2</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="AN9">
         <f>VLOOKUP(C9,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -6020,15 +6015,15 @@
       </c>
       <c r="Y10">
         <f>VLOOKUP(C10,GBOC!$E$7:$DG$29,$B$25,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <f>IFERROR(Y10/X10,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <f>X10-Y10</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <f>VLOOKUP(C10,'Giao CT'!$D$6:$S$20,9,0)</f>
@@ -6067,16 +6062,15 @@
         <v>4</v>
       </c>
       <c r="AK10">
-        <f>VLOOKUP(C10,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL10">
         <f>200%-IFERROR(AK10/AJ10,0)</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AM10">
         <f>MAX(AL10,0)</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AN10">
         <f>VLOOKUP(C10,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -6301,16 +6295,15 @@
         <v>4</v>
       </c>
       <c r="AK11">
-        <f>VLOOKUP(C11,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL11">
         <f>200%-IFERROR(AK11/AJ11,0)</f>
-        <v>2</v>
+        <v>-2.75</v>
       </c>
       <c r="AM11">
         <f>MAX(AL11,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <f>VLOOKUP(C11,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -6504,15 +6497,15 @@
       </c>
       <c r="AC12">
         <f>VLOOKUP(C12,GBOC!$E$7:$DG$29,$B$26,0)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AD12">
         <f>IFERROR(AC12/AB12,0)</f>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AE12">
         <f>AB12-AC12</f>
-        <v>-18</v>
+        <v>-30</v>
       </c>
       <c r="AF12">
         <f>VLOOKUP(C12,'Giao CT'!$D$6:$S$20,10,0)</f>
@@ -6535,16 +6528,15 @@
         <v>4</v>
       </c>
       <c r="AK12">
-        <f>VLOOKUP(C12,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL12">
         <f>200%-IFERROR(AK12/AJ12,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <f>MAX(AL12,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <f>VLOOKUP(C12,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -6738,15 +6730,15 @@
       </c>
       <c r="AC13">
         <f>VLOOKUP(C13,GBOC!$E$7:$DG$29,$B$26,0)</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AD13">
         <f>IFERROR(AC13/AB13,0)</f>
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AE13">
         <f>AB13-AC13</f>
-        <v>-24</v>
+        <v>-36</v>
       </c>
       <c r="AF13">
         <f>VLOOKUP(C13,'Giao CT'!$D$6:$S$20,10,0)</f>
@@ -6769,16 +6761,15 @@
         <v>4</v>
       </c>
       <c r="AK13">
-        <f>VLOOKUP(C13,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL13">
         <f>200%-IFERROR(AK13/AJ13,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM13">
         <f>MAX(AL13,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <f>VLOOKUP(C13,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -7003,16 +6994,15 @@
         <v>4</v>
       </c>
       <c r="AK14">
-        <f>VLOOKUP(C14,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL14">
         <f>200%-IFERROR(AK14/AJ14,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM14">
         <f>MAX(AL14,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
         <f>VLOOKUP(C14,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -7222,31 +7212,30 @@
       </c>
       <c r="AG15">
         <f>VLOOKUP(C15,GBOC!$E$7:$DG$29,$B$27,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH15">
         <f>IFERROR(AG15/AF15,0)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AI15">
         <f>AF15-AG15</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ15">
         <f>VLOOKUP(C15,'Giao CT'!$D$6:$S$20,11,0)</f>
         <v>4</v>
       </c>
       <c r="AK15">
-        <f>VLOOKUP(C15,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL15">
         <f>200%-IFERROR(AK15/AJ15,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <f>MAX(AL15,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <f>VLOOKUP(C15,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -7424,15 +7413,15 @@
       </c>
       <c r="Y16">
         <f>VLOOKUP(C16,GBOC!$E$7:$DG$29,$B$25,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <f>IFERROR(Y16/X16,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <f>X16-Y16</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
         <f>VLOOKUP(C16,'Giao CT'!$D$6:$S$20,9,0)</f>
@@ -7471,16 +7460,15 @@
         <v>4</v>
       </c>
       <c r="AK16">
-        <f>VLOOKUP(C16,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL16">
         <f>200%-IFERROR(AK16/AJ16,0)</f>
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="AM16">
         <f>MAX(AL16,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16">
         <f>VLOOKUP(C16,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -7658,15 +7646,15 @@
       </c>
       <c r="Y17">
         <f>VLOOKUP(C17,GBOC!$E$7:$DG$29,$B$25,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z17">
         <f>IFERROR(Y17/X17,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA17">
         <f>X17-Y17</f>
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="AB17">
         <f>VLOOKUP(C17,'Giao CT'!$D$6:$S$20,9,0)</f>
@@ -7705,16 +7693,15 @@
         <v>4</v>
       </c>
       <c r="AK17">
-        <f>VLOOKUP(C17,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL17">
         <f>200%-IFERROR(AK17/AJ17,0)</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AM17">
         <f>MAX(AL17,0)</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AN17">
         <f>VLOOKUP(C17,'Giao CT'!$D$6:$S$20,12,0)</f>
@@ -7939,16 +7926,15 @@
         <v>3</v>
       </c>
       <c r="AK18">
-        <f>VLOOKUP(C18,GBOC!$E$7:$DG$29,$B$28,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL18">
         <f>200%-IFERROR(AK18/AJ18,0)</f>
-        <v>2</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AM18">
         <f>MAX(AL18,0)</f>
-        <v>2</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AN18">
         <f>VLOOKUP(C18,'Giao CT'!$D$6:$S$20,12,0)</f>

--- a/filetiendo.xlsx
+++ b/filetiendo.xlsx
@@ -4928,7 +4928,7 @@
       </c>
       <c r="AS5">
         <f>(VLOOKUP(B5,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.7528</v>
+        <v>0.7554000000000001</v>
       </c>
       <c r="AT5">
         <f>IF(AS5&lt;94.5%,0,IF(AS5&lt;95.54%,50%,IF(AS5&lt;AR5,80%,100%+(30%*(AS5-AR5)/3.39%))))</f>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="AU5">
         <f>AR5-AS5</f>
-        <v>0.21719999999999995</v>
+        <v>0.2145999999999999</v>
       </c>
       <c r="AV5">
         <f>VLOOKUP(C5,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="AS6">
         <f>(VLOOKUP(B6,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.6318</v>
+        <v>0.6377</v>
       </c>
       <c r="AT6">
         <f>IF(AS6&lt;94.5%,0,IF(AS6&lt;95.54%,50%,IF(AS6&lt;AR6,80%,100%+(30%*(AS6-AR6)/3.39%))))</f>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="AU6">
         <f>AR6-AS6</f>
-        <v>0.33819999999999995</v>
+        <v>0.33229999999999993</v>
       </c>
       <c r="AV6">
         <f>VLOOKUP(C6,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="AS7">
         <f>(VLOOKUP(B7,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.7051999999999999</v>
+        <v>0.7134999999999999</v>
       </c>
       <c r="AT7">
         <f>IF(AS7&lt;94.5%,0,IF(AS7&lt;95.54%,50%,IF(AS7&lt;AR7,80%,100%+(30%*(AS7-AR7)/3.39%))))</f>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AU7">
         <f>AR7-AS7</f>
-        <v>0.26480000000000004</v>
+        <v>0.25650000000000006</v>
       </c>
       <c r="AV7">
         <f>VLOOKUP(C7,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="AS8">
         <f>(VLOOKUP(B8,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.2778</v>
+        <v>0.2847</v>
       </c>
       <c r="AT8">
         <f>IF(AS8&lt;94.5%,0,IF(AS8&lt;95.54%,50%,IF(AS8&lt;AR8,80%,100%+(30%*(AS8-AR8)/3.39%))))</f>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="AU8">
         <f>AR8-AS8</f>
-        <v>0.6921999999999999</v>
+        <v>0.6853</v>
       </c>
       <c r="AV8">
         <f>VLOOKUP(C8,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="AS9">
         <f>(VLOOKUP(B9,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.5192</v>
+        <v>0.5216</v>
       </c>
       <c r="AT9">
         <f>IF(AS9&lt;94.5%,0,IF(AS9&lt;95.54%,50%,IF(AS9&lt;AR9,80%,100%+(30%*(AS9-AR9)/3.39%))))</f>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="AU9">
         <f>AR9-AS9</f>
-        <v>0.4508</v>
+        <v>0.4484</v>
       </c>
       <c r="AV9">
         <f>VLOOKUP(C9,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="AS10">
         <f>(VLOOKUP(B10,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.4698</v>
+        <v>0.4755</v>
       </c>
       <c r="AT10">
         <f>IF(AS10&lt;94.5%,0,IF(AS10&lt;95.54%,50%,IF(AS10&lt;AR10,80%,100%+(30%*(AS10-AR10)/3.39%))))</f>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="AU10">
         <f>AR10-AS10</f>
-        <v>0.5002</v>
+        <v>0.4945</v>
       </c>
       <c r="AV10">
         <f>VLOOKUP(C10,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="AS11">
         <f>(VLOOKUP(B11,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.6067</v>
+        <v>0.6144</v>
       </c>
       <c r="AT11">
         <f>IF(AS11&lt;94.5%,0,IF(AS11&lt;95.54%,50%,IF(AS11&lt;AR11,80%,100%+(30%*(AS11-AR11)/3.39%))))</f>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="AU11">
         <f>AR11-AS11</f>
-        <v>0.36329999999999996</v>
+        <v>0.3556</v>
       </c>
       <c r="AV11">
         <f>VLOOKUP(C11,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="AS12">
         <f>(VLOOKUP(B12,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.5144</v>
+        <v>0.5166</v>
       </c>
       <c r="AT12">
         <f>IF(AS12&lt;94.5%,0,IF(AS12&lt;95.54%,50%,IF(AS12&lt;AR12,80%,100%+(30%*(AS12-AR12)/3.39%))))</f>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="AU12">
         <f>AR12-AS12</f>
-        <v>0.4556</v>
+        <v>0.4534</v>
       </c>
       <c r="AV12">
         <f>VLOOKUP(C12,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="AS13">
         <f>(VLOOKUP(B13,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.7077</v>
+        <v>0.7123</v>
       </c>
       <c r="AT13">
         <f>IF(AS13&lt;94.5%,0,IF(AS13&lt;95.54%,50%,IF(AS13&lt;AR13,80%,100%+(30%*(AS13-AR13)/3.39%))))</f>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="AU13">
         <f>AR13-AS13</f>
-        <v>0.2623</v>
+        <v>0.25769999999999993</v>
       </c>
       <c r="AV13">
         <f>VLOOKUP(C13,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="AS14">
         <f>(VLOOKUP(B14,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.47350000000000003</v>
+        <v>0.479</v>
       </c>
       <c r="AT14">
         <f>IF(AS14&lt;94.5%,0,IF(AS14&lt;95.54%,50%,IF(AS14&lt;AR14,80%,100%+(30%*(AS14-AR14)/3.39%))))</f>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="AU14">
         <f>AR14-AS14</f>
-        <v>0.49649999999999994</v>
+        <v>0.491</v>
       </c>
       <c r="AV14">
         <f>VLOOKUP(C14,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AS15">
         <f>(VLOOKUP(B15,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.5903</v>
+        <v>0.5972999999999999</v>
       </c>
       <c r="AT15">
         <f>IF(AS15&lt;94.5%,0,IF(AS15&lt;95.54%,50%,IF(AS15&lt;AR15,80%,100%+(30%*(AS15-AR15)/3.39%))))</f>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="AU15">
         <f>AR15-AS15</f>
-        <v>0.3796999999999999</v>
+        <v>0.37270000000000003</v>
       </c>
       <c r="AV15">
         <f>VLOOKUP(C15,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="AS16">
         <f>(VLOOKUP(B16,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.6784</v>
+        <v>0.6819</v>
       </c>
       <c r="AT16">
         <f>IF(AS16&lt;94.5%,0,IF(AS16&lt;95.54%,50%,IF(AS16&lt;AR16,80%,100%+(30%*(AS16-AR16)/3.39%))))</f>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="AU16">
         <f>AR16-AS16</f>
-        <v>0.29159999999999997</v>
+        <v>0.2881</v>
       </c>
       <c r="AV16">
         <f>VLOOKUP(C16,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="AS17">
         <f>(VLOOKUP(B17,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.715</v>
+        <v>0.7214</v>
       </c>
       <c r="AT17">
         <f>IF(AS17&lt;94.5%,0,IF(AS17&lt;95.54%,50%,IF(AS17&lt;AR17,80%,100%+(30%*(AS17-AR17)/3.39%))))</f>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="AU17">
         <f>AR17-AS17</f>
-        <v>0.255</v>
+        <v>0.24859999999999993</v>
       </c>
       <c r="AV17">
         <f>VLOOKUP(C17,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="AS18">
         <f>(VLOOKUP(B18,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.6817000000000001</v>
+        <v>0.6846</v>
       </c>
       <c r="AT18">
         <f>IF(AS18&lt;94.5%,0,IF(AS18&lt;95.54%,50%,IF(AS18&lt;AR18,80%,100%+(30%*(AS18-AR18)/3.39%))))</f>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="AU18">
         <f>AR18-AS18</f>
-        <v>0.2882999999999999</v>
+        <v>0.2854</v>
       </c>
       <c r="AV18">
         <f>VLOOKUP(C18,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -8019,18 +8019,18 @@
     <row r="19">
       <c r="F19">
         <f>TODAY()</f>
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="I19">
         <f>DAY(F19)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <v>31</v>
       </c>
       <c r="K19">
         <f>I19/J19</f>
-        <v>0.6451612903225806</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L19" t="str">
         <v>KPI theo tiến độ ngày</v>
@@ -8203,12 +8203,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="L19:AJ19"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AV2:BG2"/>
@@ -8225,6 +8219,12 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="L19:AJ19"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
   </mergeCells>
   <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>
   <ignoredErrors>
@@ -8354,10 +8354,10 @@
         <v>72573808</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>628679</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>355</v>
@@ -8383,32 +8383,32 @@
         <v>101866340</v>
       </c>
       <c r="T7">
-        <v>30127317.799999997</v>
+        <v>29706906.799999997</v>
       </c>
       <c r="U7">
         <f>VLOOKUP(R7,$C$7:$P$27,14,0)</f>
-        <v>29706906.799999997</v>
+        <v>29352490.799999997</v>
       </c>
       <c r="V7">
         <f>VLOOKUP(R7,$C$7:$P$27,14,0)-T7</f>
-        <v>-420411</v>
+        <v>-354416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>VIETDQ9_NVKDDB_LDG</v>
+        <v>TAIDT2_CTX_DVTM_LDG</v>
       </c>
       <c r="B8" t="str">
-        <v>ANLT_LDG_CNKD</v>
+        <v>NHUNGPT_LDG_CNKD</v>
       </c>
       <c r="C8" t="str">
-        <v>CNKD_LDG_ANLT</v>
+        <v>CNKD_LDG_NHUNGPT</v>
       </c>
       <c r="D8">
-        <v>876</v>
+        <v>454</v>
       </c>
       <c r="E8">
-        <v>145101823</v>
+        <v>70243418</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8417,32 +8417,32 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>876</v>
+        <v>454</v>
       </c>
       <c r="I8">
-        <v>145101823</v>
+        <v>70243418</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1891872</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>639</v>
+        <v>333</v>
       </c>
       <c r="M8">
-        <v>109233824</v>
+        <v>53205481</v>
       </c>
       <c r="N8">
-        <v>72.95</v>
+        <v>73.35</v>
       </c>
       <c r="O8">
-        <v>75.28</v>
+        <v>75.74</v>
       </c>
       <c r="P8">
         <f>I8*0.97-M8</f>
-        <v>31514944.310000002</v>
+        <v>14930634.459999993</v>
       </c>
       <c r="R8" t="str">
         <v>CNKD_LDG_ANLT</v>
@@ -8452,32 +8452,32 @@
         <v>145101823</v>
       </c>
       <c r="T8">
-        <v>32474109.310000002</v>
+        <v>31514944.310000002</v>
       </c>
       <c r="U8">
         <f>VLOOKUP(R8,$C$7:$P$27,14,0)</f>
-        <v>31514944.310000002</v>
+        <v>31134944.310000002</v>
       </c>
       <c r="V8">
         <f>VLOOKUP(R8,$C$7:$P$27,14,0)-T8</f>
-        <v>-959165</v>
+        <v>-380000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>TAIDT2_CTX_DVTM_LDG</v>
+        <v>VIETDQ9_NVKDDB_LDG</v>
       </c>
       <c r="B9" t="str">
-        <v>NHUNGPT_LDG_CNKD</v>
+        <v>ANLT_LDG_CNKD</v>
       </c>
       <c r="C9" t="str">
-        <v>CNKD_LDG_NHUNGPT</v>
+        <v>CNKD_LDG_ANLT</v>
       </c>
       <c r="D9">
-        <v>454</v>
+        <v>876</v>
       </c>
       <c r="E9">
-        <v>70243418</v>
+        <v>145101823</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -8486,32 +8486,32 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>454</v>
+        <v>876</v>
       </c>
       <c r="I9">
-        <v>70243418</v>
+        <v>145101823</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>278065</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>328</v>
+        <v>641</v>
       </c>
       <c r="M9">
-        <v>52275131</v>
+        <v>109613824</v>
       </c>
       <c r="N9">
-        <v>72.25</v>
+        <v>73.17</v>
       </c>
       <c r="O9">
-        <v>74.42</v>
+        <v>75.54</v>
       </c>
       <c r="P9">
         <f>I9*0.97-M9</f>
-        <v>15860984.459999993</v>
+        <v>31134944.310000002</v>
       </c>
       <c r="R9" t="str">
         <v>CNKD_LDG_LINHPM</v>
@@ -8525,11 +8525,11 @@
       </c>
       <c r="U9">
         <f>VLOOKUP(R9,$C$7:$P$27,14,0)</f>
-        <v>51393984.27000001</v>
+        <v>50303871.27000001</v>
       </c>
       <c r="V9">
         <f>VLOOKUP(R9,$C$7:$P$27,14,0)-T9</f>
-        <v>0</v>
+        <v>-1090113</v>
       </c>
     </row>
     <row r="10">
@@ -8537,16 +8537,16 @@
         <v>TAIDT2_CTX_DVTM_LDG</v>
       </c>
       <c r="B10" t="str">
-        <v>NHUYK_LDG_CNKD</v>
+        <v>SONNH_LDG_CNKD</v>
       </c>
       <c r="C10" t="str">
-        <v>CNKD_LDG_NHUYK</v>
+        <v>CNKD_LDG_SONNH</v>
       </c>
       <c r="D10">
-        <v>716</v>
+        <v>559</v>
       </c>
       <c r="E10">
-        <v>116427734</v>
+        <v>93597302</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -8555,32 +8555,32 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>716</v>
+        <v>559</v>
       </c>
       <c r="I10">
-        <v>116427734</v>
+        <v>93597302</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>978395</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="M10">
-        <v>85296755</v>
+        <v>68792554</v>
       </c>
       <c r="N10">
-        <v>70.53</v>
+        <v>71.56</v>
       </c>
       <c r="O10">
-        <v>73.26</v>
+        <v>73.5</v>
       </c>
       <c r="P10">
         <f>I10*0.97-M10</f>
-        <v>27638146.980000004</v>
+        <v>21996828.939999998</v>
       </c>
       <c r="R10" t="str">
         <v>CNKD_LDG_SANGLT</v>
@@ -8590,15 +8590,15 @@
         <v>149379338</v>
       </c>
       <c r="T10">
-        <v>74498115.85999998</v>
+        <v>74164324.85999998</v>
       </c>
       <c r="U10">
         <f>VLOOKUP(R10,$C$7:$P$27,14,0)</f>
-        <v>74164324.85999998</v>
+        <v>73342657.85999998</v>
       </c>
       <c r="V10">
         <f>VLOOKUP(R10,$C$7:$P$27,14,0)-T10</f>
-        <v>-333791</v>
+        <v>-821667</v>
       </c>
     </row>
     <row r="11">
@@ -8630,26 +8630,26 @@
         <v>51982396</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>744546</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>222</v>
       </c>
       <c r="M11">
-        <v>38071943</v>
+        <v>38121943</v>
       </c>
       <c r="N11">
         <v>72.08</v>
       </c>
       <c r="O11">
-        <v>73.24</v>
+        <v>73.34</v>
       </c>
       <c r="P11">
         <f>I11*0.97-M11</f>
-        <v>12350981.119999997</v>
+        <v>12300981.119999997</v>
       </c>
       <c r="R11" t="str">
         <v>CNKD_LDG_NHUANVD</v>
@@ -8663,11 +8663,11 @@
       </c>
       <c r="U11">
         <f>VLOOKUP(R11,$C$7:$P$27,14,0)</f>
-        <v>48270308.75</v>
+        <v>48042097.75</v>
       </c>
       <c r="V11">
         <f>VLOOKUP(R11,$C$7:$P$27,14,0)-T11</f>
-        <v>0</v>
+        <v>-228211</v>
       </c>
     </row>
     <row r="12">
@@ -8675,16 +8675,16 @@
         <v>TAIDT2_CTX_DVTM_LDG</v>
       </c>
       <c r="B12" t="str">
-        <v>SONNH_LDG_CNKD</v>
+        <v>NHUYK_LDG_CNKD</v>
       </c>
       <c r="C12" t="str">
-        <v>CNKD_LDG_SONNH</v>
+        <v>CNKD_LDG_NHUYK</v>
       </c>
       <c r="D12">
-        <v>559</v>
+        <v>716</v>
       </c>
       <c r="E12">
-        <v>93597302</v>
+        <v>116427734</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -8693,32 +8693,32 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>559</v>
+        <v>716</v>
       </c>
       <c r="I12">
-        <v>93597302</v>
+        <v>116427734</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>484000</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>398</v>
+        <v>505</v>
       </c>
       <c r="M12">
-        <v>68357037</v>
+        <v>85296755</v>
       </c>
       <c r="N12">
-        <v>71.2</v>
+        <v>70.53</v>
       </c>
       <c r="O12">
-        <v>73.03</v>
+        <v>73.26</v>
       </c>
       <c r="P12">
         <f>I12*0.97-M12</f>
-        <v>22432345.939999998</v>
+        <v>27638146.980000004</v>
       </c>
       <c r="R12" t="str">
         <v>CNKD_LDG_HIEUBT</v>
@@ -8728,15 +8728,15 @@
         <v>152862316</v>
       </c>
       <c r="T12">
-        <v>40604779.52000001</v>
+        <v>40481857.52000001</v>
       </c>
       <c r="U12">
         <f>VLOOKUP(R12,$C$7:$P$27,14,0)</f>
-        <v>40481857.52000001</v>
+        <v>39211857.52000001</v>
       </c>
       <c r="V12">
         <f>VLOOKUP(R12,$C$7:$P$27,14,0)-T12</f>
-        <v>-122922</v>
+        <v>-1270000</v>
       </c>
     </row>
     <row r="13">
@@ -8768,26 +8768,26 @@
         <v>189656153</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2188367</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="M13">
-        <v>135602825</v>
+        <v>136817073</v>
       </c>
       <c r="N13">
-        <v>70.36</v>
+        <v>71.04</v>
       </c>
       <c r="O13">
-        <v>71.5</v>
+        <v>72.14</v>
       </c>
       <c r="P13">
         <f>I13*0.97-M13</f>
-        <v>48363643.41</v>
+        <v>47149395.41</v>
       </c>
       <c r="R13" t="str">
         <v>CNKD_LDG_PHUONGNTT1</v>
@@ -8801,11 +8801,11 @@
       </c>
       <c r="U13">
         <f>VLOOKUP(R13,$C$7:$P$27,14,0)</f>
-        <v>47325247.59</v>
+        <v>46507428.59</v>
       </c>
       <c r="V13">
         <f>VLOOKUP(R13,$C$7:$P$27,14,0)-T13</f>
-        <v>0</v>
+        <v>-817819</v>
       </c>
     </row>
     <row r="14">
@@ -8813,16 +8813,16 @@
         <v>SONTV10_NVKDDB_LDG</v>
       </c>
       <c r="B14" t="str">
-        <v>PHUONGNTT1_LDG_CNKD</v>
+        <v>HIEUBT_LDG_CNKD</v>
       </c>
       <c r="C14" t="str">
-        <v>CNKD_LDG_PHUONGNTT1</v>
+        <v>CNKD_LDG_HIEUBT</v>
       </c>
       <c r="D14">
-        <v>1048</v>
+        <v>941</v>
       </c>
       <c r="E14">
-        <v>180440547</v>
+        <v>152862316</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8831,32 +8831,32 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1048</v>
+        <v>941</v>
       </c>
       <c r="I14">
-        <v>180440547</v>
+        <v>152862316</v>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2402860</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>720</v>
+        <v>633</v>
       </c>
       <c r="M14">
-        <v>127702083</v>
+        <v>109064589</v>
       </c>
       <c r="N14">
-        <v>68.7</v>
+        <v>67.27</v>
       </c>
       <c r="O14">
-        <v>70.77</v>
+        <v>71.35</v>
       </c>
       <c r="P14">
         <f>I14*0.97-M14</f>
-        <v>47325247.59</v>
+        <v>39211857.52000001</v>
       </c>
       <c r="R14" t="str">
         <v>CNKD_LDG_HANGBT</v>
@@ -8866,15 +8866,15 @@
         <v>162344260</v>
       </c>
       <c r="T14">
-        <v>55144746.19999999</v>
+        <v>54899043.19999999</v>
       </c>
       <c r="U14">
         <f>VLOOKUP(R14,$C$7:$P$27,14,0)</f>
-        <v>54899043.19999999</v>
+        <v>53941079.19999999</v>
       </c>
       <c r="V14">
         <f>VLOOKUP(R14,$C$7:$P$27,14,0)-T14</f>
-        <v>-245703</v>
+        <v>-957964</v>
       </c>
     </row>
     <row r="15">
@@ -8882,16 +8882,16 @@
         <v>SONTV10_NVKDDB_LDG</v>
       </c>
       <c r="B15" t="str">
-        <v>HIEUBT_LDG_CNKD</v>
+        <v>PHUONGNTT1_LDG_CNKD</v>
       </c>
       <c r="C15" t="str">
-        <v>CNKD_LDG_HIEUBT</v>
+        <v>CNKD_LDG_PHUONGNTT1</v>
       </c>
       <c r="D15">
-        <v>941</v>
+        <v>1048</v>
       </c>
       <c r="E15">
-        <v>152862316</v>
+        <v>180440547</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -8900,32 +8900,32 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>941</v>
+        <v>1048</v>
       </c>
       <c r="I15">
-        <v>152862316</v>
+        <v>180440547</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1083453</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>627</v>
+        <v>725</v>
       </c>
       <c r="M15">
-        <v>107794589</v>
+        <v>128519902</v>
       </c>
       <c r="N15">
-        <v>66.63</v>
+        <v>69.18</v>
       </c>
       <c r="O15">
-        <v>70.52</v>
+        <v>71.23</v>
       </c>
       <c r="P15">
         <f>I15*0.97-M15</f>
-        <v>40481857.52000001</v>
+        <v>46507428.59</v>
       </c>
       <c r="R15" t="str">
         <v>CNKD_LDG_SANGTV</v>
@@ -8935,15 +8935,15 @@
         <v>194517020</v>
       </c>
       <c r="T15">
-        <v>74283531.4</v>
+        <v>73856161.4</v>
       </c>
       <c r="U15">
         <f>VLOOKUP(R15,$C$7:$P$27,14,0)</f>
-        <v>73856161.4</v>
+        <v>72499143.4</v>
       </c>
       <c r="V15">
         <f>VLOOKUP(R15,$C$7:$P$27,14,0)-T15</f>
-        <v>-427370</v>
+        <v>-1357018</v>
       </c>
     </row>
     <row r="16">
@@ -8951,16 +8951,16 @@
         <v>TAIDT2_CTX_DVTM_LDG</v>
       </c>
       <c r="B16" t="str">
-        <v>VANVV_LDG_CNKD</v>
+        <v>LOANBTB_LDG_CNKD</v>
       </c>
       <c r="C16" t="str">
-        <v>CNKD_LDG_VANVV</v>
+        <v>CNKD_LDG_LOANBTB</v>
       </c>
       <c r="D16">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="E16">
-        <v>66800107</v>
+        <v>53605661</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -8969,10 +8969,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="I16">
-        <v>66800107</v>
+        <v>53605661</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8981,20 +8981,20 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="M16">
-        <v>45540821</v>
+        <v>36880160</v>
       </c>
       <c r="N16">
-        <v>65.3</v>
+        <v>64.89</v>
       </c>
       <c r="O16">
-        <v>68.17</v>
+        <v>68.8</v>
       </c>
       <c r="P16">
         <f>I16*0.97-M16</f>
-        <v>19255282.79</v>
+        <v>15117331.170000002</v>
       </c>
       <c r="R16" t="str">
         <v>CNKD_LDG_THUONGNTH</v>
@@ -9004,15 +9004,15 @@
         <v>189656153</v>
       </c>
       <c r="T16">
-        <v>48710624.41</v>
+        <v>48363643.41</v>
       </c>
       <c r="U16">
         <f>VLOOKUP(R16,$C$7:$P$27,14,0)</f>
-        <v>48363643.41</v>
+        <v>47149395.41</v>
       </c>
       <c r="V16">
         <f>VLOOKUP(R16,$C$7:$P$27,14,0)-T16</f>
-        <v>-346981</v>
+        <v>-1214248</v>
       </c>
     </row>
     <row r="17">
@@ -9020,16 +9020,16 @@
         <v>TAIDT2_CTX_DVTM_LDG</v>
       </c>
       <c r="B17" t="str">
-        <v>LOANBTB_LDG_CNKD</v>
+        <v>VANVV_LDG_CNKD</v>
       </c>
       <c r="C17" t="str">
-        <v>CNKD_LDG_LOANBTB</v>
+        <v>CNKD_LDG_VANVV</v>
       </c>
       <c r="D17">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="E17">
-        <v>53605661</v>
+        <v>66800107</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -9038,32 +9038,32 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="I17">
-        <v>53605661</v>
+        <v>66800107</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>721518</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="M17">
-        <v>36525160</v>
+        <v>45734536</v>
       </c>
       <c r="N17">
-        <v>64.33</v>
+        <v>65.54</v>
       </c>
       <c r="O17">
-        <v>68.14</v>
+        <v>68.46</v>
       </c>
       <c r="P17">
         <f>I17*0.97-M17</f>
-        <v>15472331.170000002</v>
+        <v>19061567.79</v>
       </c>
       <c r="R17" t="str">
         <v>CNKD_LDG_HUONGVTT</v>
@@ -9077,11 +9077,11 @@
       </c>
       <c r="U17">
         <f>VLOOKUP(R17,$C$7:$P$27,14,0)</f>
-        <v>47701941.67</v>
+        <v>47159441.67</v>
       </c>
       <c r="V17">
         <f>VLOOKUP(R17,$C$7:$P$27,14,0)-T17</f>
-        <v>0</v>
+        <v>-542500</v>
       </c>
     </row>
     <row r="18">
@@ -9113,26 +9113,26 @@
         <v>50351985</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>527559</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18">
-        <v>34275819</v>
+        <v>34434236</v>
       </c>
       <c r="N18">
-        <v>64.78</v>
+        <v>65.09</v>
       </c>
       <c r="O18">
-        <v>68.07</v>
+        <v>68.39</v>
       </c>
       <c r="P18">
         <f>I18*0.97-M18</f>
-        <v>14565606.449999996</v>
+        <v>14407189.449999996</v>
       </c>
     </row>
     <row r="19">
@@ -9164,26 +9164,26 @@
         <v>101866340</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1194454</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M19">
-        <v>69103443</v>
+        <v>69457859</v>
       </c>
       <c r="N19">
-        <v>65.26</v>
+        <v>65.58</v>
       </c>
       <c r="O19">
-        <v>67.84</v>
+        <v>68.19</v>
       </c>
       <c r="P19">
         <f>I19*0.97-M19</f>
-        <v>29706906.799999997</v>
+        <v>29352490.799999997</v>
       </c>
     </row>
     <row r="20">
@@ -9215,26 +9215,26 @@
         <v>162344260</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1364200</v>
+        <v>210000</v>
       </c>
       <c r="L20">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="M20">
-        <v>102574889</v>
+        <v>103532853</v>
       </c>
       <c r="N20">
-        <v>62.6</v>
+        <v>63.12</v>
       </c>
       <c r="O20">
-        <v>63.18</v>
+        <v>63.77</v>
       </c>
       <c r="P20">
         <f>I20*0.97-M20</f>
-        <v>54899043.19999999</v>
+        <v>53941079.19999999</v>
       </c>
     </row>
     <row r="21">
@@ -9266,26 +9266,26 @@
         <v>141474291</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>1232475</v>
+        <v>279610</v>
       </c>
       <c r="L21">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M21">
-        <v>85836078</v>
+        <v>86926191</v>
       </c>
       <c r="N21">
-        <v>59.55</v>
+        <v>60.26</v>
       </c>
       <c r="O21">
-        <v>60.67</v>
+        <v>61.44</v>
       </c>
       <c r="P21">
         <f>I21*0.97-M21</f>
-        <v>51393984.27000001</v>
+        <v>50303871.27000001</v>
       </c>
     </row>
     <row r="22">
@@ -9317,26 +9317,26 @@
         <v>194517020</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1993146</v>
+        <v>168000</v>
       </c>
       <c r="L22">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="M22">
-        <v>114825348</v>
+        <v>116182366</v>
       </c>
       <c r="N22">
-        <v>57.35</v>
+        <v>58.1</v>
       </c>
       <c r="O22">
-        <v>59.03</v>
+        <v>59.73</v>
       </c>
       <c r="P22">
         <f>I22*0.97-M22</f>
-        <v>73856161.4</v>
+        <v>72499143.4</v>
       </c>
     </row>
     <row r="23">
@@ -9368,26 +9368,26 @@
         <v>89879995</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>405300</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M23">
-        <v>46668043</v>
+        <v>46878043</v>
       </c>
       <c r="N23">
-        <v>50.73</v>
+        <v>50.92</v>
       </c>
       <c r="O23">
-        <v>51.92</v>
+        <v>52.16</v>
       </c>
       <c r="P23">
         <f>I23*0.97-M23</f>
-        <v>40515552.14999999</v>
+        <v>40305552.14999999</v>
       </c>
     </row>
     <row r="24">
@@ -9419,26 +9419,26 @@
         <v>105953075</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>224973</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M24">
-        <v>54504174</v>
+        <v>54732385</v>
       </c>
       <c r="N24">
-        <v>50.07</v>
+        <v>50.51</v>
       </c>
       <c r="O24">
-        <v>51.44</v>
+        <v>51.66</v>
       </c>
       <c r="P24">
         <f>I24*0.97-M24</f>
-        <v>48270308.75</v>
+        <v>48042097.75</v>
       </c>
     </row>
     <row r="25">
@@ -9470,26 +9470,26 @@
         <v>149379338</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>865085</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M25">
-        <v>70733633</v>
+        <v>71555300</v>
       </c>
       <c r="N25">
-        <v>48.32</v>
+        <v>48.99</v>
       </c>
       <c r="O25">
-        <v>47.35</v>
+        <v>47.9</v>
       </c>
       <c r="P25">
         <f>I25*0.97-M25</f>
-        <v>74164324.85999998</v>
+        <v>73342657.85999998</v>
       </c>
     </row>
     <row r="26">
@@ -9521,26 +9521,26 @@
         <v>95369711</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>483362</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M26">
-        <v>44806678</v>
+        <v>45349178</v>
       </c>
       <c r="N26">
-        <v>45.41</v>
+        <v>45.92</v>
       </c>
       <c r="O26">
-        <v>46.98</v>
+        <v>47.55</v>
       </c>
       <c r="P26">
         <f>I26*0.97-M26</f>
-        <v>47701941.67</v>
+        <v>47159441.67</v>
       </c>
     </row>
     <row r="27">
@@ -9572,30 +9572,34 @@
         <v>105983346</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>386571</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M27">
-        <v>29438635</v>
+        <v>30173948</v>
       </c>
       <c r="N27">
-        <v>28.11</v>
+        <v>28.84</v>
       </c>
       <c r="O27">
-        <v>27.78</v>
+        <v>28.47</v>
       </c>
       <c r="P27">
         <f>I27*0.97-M27</f>
-        <v>73365210.61999999</v>
+        <v>72629897.61999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:B3"/>
@@ -9610,10 +9614,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>
   <ignoredErrors>

--- a/filetiendo.xlsx
+++ b/filetiendo.xlsx
@@ -8203,6 +8203,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="L19:AJ19"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AV2:BG2"/>
@@ -8219,12 +8225,6 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="L19:AJ19"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
   </mergeCells>
   <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>
   <ignoredErrors>
@@ -9596,6 +9596,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
@@ -9612,8 +9614,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>
   <ignoredErrors>

--- a/filetiendo.xlsx
+++ b/filetiendo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\viettel 2026\thang 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2820FC86-BE47-4B42-A4AB-E67A94F73D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1F6F5-241C-4C1B-8706-8C57FD36B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="808" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH NV" sheetId="2" r:id="rId1"/>
@@ -4737,12 +4737,6 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4765,6 +4759,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="AS5" s="129">
         <f>(VLOOKUP(B5,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.75540000000000007</v>
+        <v>0.76069999999999993</v>
       </c>
       <c r="AT5" s="14">
         <f t="shared" ref="AT5:AT18" si="20">IF(AS5&lt;94.5%,0,IF(AS5&lt;95.54%,50%,IF(AS5&lt;AR5,80%,100%+(30%*(AS5-AR5)/3.39%))))</f>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="AU5" s="54">
         <f t="shared" ref="AU5:AU18" si="21">AR5-AS5</f>
-        <v>0.2145999999999999</v>
+        <v>0.20930000000000004</v>
       </c>
       <c r="AV5" s="57">
         <f>VLOOKUP(C5,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="AS6" s="129">
         <f>(VLOOKUP(B6,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.63770000000000004</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="AT6" s="14">
         <f t="shared" si="20"/>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="AU6" s="54">
         <f t="shared" si="21"/>
-        <v>0.33229999999999993</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="AV6" s="57">
         <f>VLOOKUP(C6,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="AS7" s="129">
         <f>(VLOOKUP(B7,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.71349999999999991</v>
+        <v>0.72209999999999996</v>
       </c>
       <c r="AT7" s="14">
         <f t="shared" si="20"/>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AU7" s="54">
         <f t="shared" si="21"/>
-        <v>0.25650000000000006</v>
+        <v>0.24790000000000001</v>
       </c>
       <c r="AV7" s="57">
         <f>VLOOKUP(C7,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="AS8" s="129">
         <f>(VLOOKUP(B8,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.28470000000000001</v>
+        <v>0.29580000000000001</v>
       </c>
       <c r="AT8" s="14">
         <f t="shared" si="20"/>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="AU8" s="54">
         <f t="shared" si="21"/>
-        <v>0.68530000000000002</v>
+        <v>0.67419999999999991</v>
       </c>
       <c r="AV8" s="57">
         <f>VLOOKUP(C8,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="AS9" s="129">
         <f>(VLOOKUP(B9,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.52159999999999995</v>
+        <v>0.53479999999999994</v>
       </c>
       <c r="AT9" s="14">
         <f t="shared" si="20"/>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="AU9" s="54">
         <f t="shared" si="21"/>
-        <v>0.44840000000000002</v>
+        <v>0.43520000000000003</v>
       </c>
       <c r="AV9" s="57">
         <f>VLOOKUP(C9,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="AS10" s="129">
         <f>(VLOOKUP(B10,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.47549999999999998</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="AT10" s="14">
         <f t="shared" si="20"/>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="AU10" s="54">
         <f t="shared" si="21"/>
-        <v>0.4945</v>
+        <v>0.48479999999999995</v>
       </c>
       <c r="AV10" s="57">
         <f>VLOOKUP(C10,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="AS11" s="129">
         <f>(VLOOKUP(B11,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.61439999999999995</v>
+        <v>0.61619999999999997</v>
       </c>
       <c r="AT11" s="14">
         <f t="shared" si="20"/>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AU11" s="54">
         <f t="shared" si="21"/>
-        <v>0.35560000000000003</v>
+        <v>0.3538</v>
       </c>
       <c r="AV11" s="57">
         <f>VLOOKUP(C11,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AS12" s="129">
         <f>(VLOOKUP(B12,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.51659999999999995</v>
+        <v>0.52340000000000009</v>
       </c>
       <c r="AT12" s="14">
         <f t="shared" si="20"/>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="AU12" s="54">
         <f t="shared" si="21"/>
-        <v>0.45340000000000003</v>
+        <v>0.44659999999999989</v>
       </c>
       <c r="AV12" s="57">
         <f>VLOOKUP(C12,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="AS13" s="129">
         <f>(VLOOKUP(B13,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.71230000000000004</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="AT13" s="14">
         <f t="shared" si="20"/>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="AU13" s="54">
         <f t="shared" si="21"/>
-        <v>0.25769999999999993</v>
+        <v>0.245</v>
       </c>
       <c r="AV13" s="57">
         <f>VLOOKUP(C13,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="AS14" s="129">
         <f>(VLOOKUP(B14,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.47899999999999998</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="AT14" s="14">
         <f t="shared" si="20"/>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="AU14" s="54">
         <f t="shared" si="21"/>
-        <v>0.49099999999999999</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="AV14" s="57">
         <f>VLOOKUP(C14,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AS15" s="129">
         <f>(VLOOKUP(B15,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.59729999999999994</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="AT15" s="14">
         <f t="shared" si="20"/>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="AU15" s="54">
         <f t="shared" si="21"/>
-        <v>0.37270000000000003</v>
+        <v>0.35519999999999996</v>
       </c>
       <c r="AV15" s="57">
         <f>VLOOKUP(C15,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="AS16" s="129">
         <f>(VLOOKUP(B16,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.68189999999999995</v>
+        <v>0.69150000000000011</v>
       </c>
       <c r="AT16" s="14">
         <f t="shared" si="20"/>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="AU16" s="54">
         <f t="shared" si="21"/>
-        <v>0.28810000000000002</v>
+        <v>0.27849999999999986</v>
       </c>
       <c r="AV16" s="57">
         <f>VLOOKUP(C16,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="AS17" s="129">
         <f>(VLOOKUP(B17,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.72140000000000004</v>
+        <v>0.72730000000000006</v>
       </c>
       <c r="AT17" s="14">
         <f t="shared" si="20"/>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="AU17" s="54">
         <f t="shared" si="21"/>
-        <v>0.24859999999999993</v>
+        <v>0.24269999999999992</v>
       </c>
       <c r="AV17" s="57">
         <f>VLOOKUP(C17,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="AS18" s="129">
         <f>(VLOOKUP(B18,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.68459999999999999</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="AT18" s="14">
         <f t="shared" si="20"/>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="AU18" s="54">
         <f t="shared" si="21"/>
-        <v>0.28539999999999999</v>
+        <v>0.26339999999999997</v>
       </c>
       <c r="AV18" s="57">
         <f>VLOOKUP(C18,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -9880,20 +9880,20 @@
       <c r="E19" s="16"/>
       <c r="F19" s="212">
         <f ca="1">TODAY()</f>
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="G19" s="212"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91">
         <f ca="1">DAY(F19)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="92">
         <v>31</v>
       </c>
       <c r="K19" s="95">
         <f ca="1">I19/J19</f>
-        <v>0.67741935483870963</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="L19" s="213" t="s">
         <v>124</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="D14" s="74">
         <f>VLOOKUP($B$2,'TH NV'!$A$5:$BG$18,N14,0)</f>
-        <v>0.61439999999999995</v>
+        <v>0.61619999999999997</v>
       </c>
       <c r="E14" s="49" t="e">
         <f>VLOOKUP($B$2,'TH NV'!$A$1:$BG$18,70,0)</f>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="J14" s="65">
         <f t="shared" si="2"/>
-        <v>0.35560000000000003</v>
+        <v>0.3538</v>
       </c>
       <c r="K14" s="221"/>
       <c r="L14" s="114" t="s">
@@ -11302,7 +11302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="E28" sqref="E28"/>
       <selection pane="topRight" activeCell="AI23" sqref="AI23"/>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="AS4" s="129">
         <f>(VLOOKUP(B4,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.75540000000000007</v>
+        <v>0.76069999999999993</v>
       </c>
       <c r="AT4" s="14">
         <f t="shared" ref="AT4" si="20">IF(AS4&lt;94.5%,0,IF(AS4&lt;95.54%,50%,IF(AS4&lt;AR4,80%,100%+(30%*(AS4-AR4)/3.39%))))</f>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="AU4" s="54">
         <f t="shared" ref="AU4" si="21">AR4-AS4</f>
-        <v>0.2145999999999999</v>
+        <v>0.20930000000000004</v>
       </c>
       <c r="AV4" s="57">
         <f>VLOOKUP(A4,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="AS5" s="129">
         <f>(VLOOKUP(B5,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.61439999999999995</v>
+        <v>0.61619999999999997</v>
       </c>
       <c r="AT5" s="14">
         <f t="shared" ref="AT5:AT16" si="48">IF(AS5&lt;94.5%,0,IF(AS5&lt;95.54%,50%,IF(AS5&lt;AR5,80%,100%+(30%*(AS5-AR5)/3.39%))))</f>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="AU5" s="54">
         <f t="shared" ref="AU5:AU16" si="49">AR5-AS5</f>
-        <v>0.35560000000000003</v>
+        <v>0.3538</v>
       </c>
       <c r="AV5" s="57">
         <f>VLOOKUP(A5,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -12344,7 +12344,7 @@
       </c>
       <c r="AS6" s="129">
         <f>(VLOOKUP(B6,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.51659999999999995</v>
+        <v>0.52340000000000009</v>
       </c>
       <c r="AT6" s="14">
         <f t="shared" si="48"/>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="AU6" s="54">
         <f t="shared" si="49"/>
-        <v>0.45340000000000003</v>
+        <v>0.44659999999999989</v>
       </c>
       <c r="AV6" s="57">
         <f>VLOOKUP(A6,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="AS7" s="129">
         <f>(VLOOKUP(B7,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.47899999999999998</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="AT7" s="14">
         <f t="shared" si="48"/>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="AU7" s="54">
         <f t="shared" si="49"/>
-        <v>0.49099999999999999</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="AV7" s="57">
         <f>VLOOKUP(A7,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -12812,7 +12812,7 @@
       </c>
       <c r="AS8" s="129">
         <f>(VLOOKUP(B8,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.68189999999999995</v>
+        <v>0.69150000000000011</v>
       </c>
       <c r="AT8" s="14">
         <f t="shared" si="48"/>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="AU8" s="54">
         <f t="shared" si="49"/>
-        <v>0.28810000000000002</v>
+        <v>0.27849999999999986</v>
       </c>
       <c r="AV8" s="57">
         <f>VLOOKUP(A8,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="AS10" s="129">
         <f>(VLOOKUP(B10,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.63770000000000004</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="AT10" s="14">
         <f t="shared" si="48"/>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="AU10" s="54">
         <f t="shared" si="49"/>
-        <v>0.33229999999999993</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="AV10" s="57">
         <f>VLOOKUP(A10,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="AS11" s="129">
         <f>(VLOOKUP(B11,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.71349999999999991</v>
+        <v>0.72209999999999996</v>
       </c>
       <c r="AT11" s="14">
         <f t="shared" si="48"/>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="AU11" s="54">
         <f t="shared" si="49"/>
-        <v>0.25650000000000006</v>
+        <v>0.24790000000000001</v>
       </c>
       <c r="AV11" s="57">
         <f>VLOOKUP(A11,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="AS12" s="129">
         <f>(VLOOKUP(B12,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.28470000000000001</v>
+        <v>0.29580000000000001</v>
       </c>
       <c r="AT12" s="14">
         <f t="shared" si="48"/>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="AU12" s="54">
         <f t="shared" si="49"/>
-        <v>0.68530000000000002</v>
+        <v>0.67419999999999991</v>
       </c>
       <c r="AV12" s="57">
         <f>VLOOKUP(A12,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="AS13" s="129">
         <f>(VLOOKUP(B13,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.47549999999999998</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="AT13" s="14">
         <f t="shared" si="48"/>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="AU13" s="54">
         <f t="shared" si="49"/>
-        <v>0.4945</v>
+        <v>0.48479999999999995</v>
       </c>
       <c r="AV13" s="57">
         <f>VLOOKUP(A13,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="AS14" s="129">
         <f>(VLOOKUP(B14,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.71230000000000004</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="AT14" s="14">
         <f t="shared" si="48"/>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="AU14" s="54">
         <f t="shared" si="49"/>
-        <v>0.25769999999999993</v>
+        <v>0.245</v>
       </c>
       <c r="AV14" s="57">
         <f>VLOOKUP(A14,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="AS15" s="129">
         <f>(VLOOKUP(B15,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.59729999999999994</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="AT15" s="14">
         <f t="shared" si="48"/>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="AU15" s="54">
         <f t="shared" si="49"/>
-        <v>0.37270000000000003</v>
+        <v>0.35519999999999996</v>
       </c>
       <c r="AV15" s="57">
         <f>VLOOKUP(A15,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="AS16" s="129">
         <f>(VLOOKUP(B16,cuoc!$B$7:$P$27,14,0))*1%</f>
-        <v>0.72140000000000004</v>
+        <v>0.72730000000000006</v>
       </c>
       <c r="AT16" s="14">
         <f t="shared" si="48"/>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="AU16" s="54">
         <f t="shared" si="49"/>
-        <v>0.24859999999999993</v>
+        <v>0.24269999999999992</v>
       </c>
       <c r="AV16" s="57">
         <f>VLOOKUP(A16,'Giao CT'!$D$6:$S$20,14,0)</f>
@@ -14603,11 +14603,11 @@
       </c>
       <c r="C19" s="142">
         <f ca="1">SUMIF(cuoc!A7:P27,'tiến độ'!A19,cuoc!M7:M27)</f>
-        <v>392285559</v>
+        <v>396288627</v>
       </c>
       <c r="D19" s="142">
         <f ca="1">B19*0.968-C19</f>
-        <v>230888512.25599992</v>
+        <v>226885444.25599992</v>
       </c>
       <c r="E19" s="137"/>
       <c r="H19" s="137"/>
@@ -14624,11 +14624,11 @@
       </c>
       <c r="C20" s="143">
         <f ca="1">SUMIF(cuoc!A8:P27,'tiến độ'!A20,cuoc!M8:M27)</f>
-        <v>639465961</v>
+        <v>649795144</v>
       </c>
       <c r="D20" s="142">
         <f ca="1">B20*0.968-C20</f>
-        <v>304517965.77600002</v>
+        <v>294188782.77600002</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
@@ -28876,8 +28876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:O27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28907,44 +28907,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="264"/>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="264"/>
-      <c r="M1" s="264"/>
-      <c r="N1" s="264"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
     </row>
     <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="265"/>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
-      <c r="P2" s="265"/>
+      <c r="A2" s="263"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="266"/>
-      <c r="B3" s="266"/>
+      <c r="A3" s="264"/>
+      <c r="B3" s="264"/>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
@@ -28961,10 +28961,10 @@
       <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="268" t="s">
+      <c r="A4" s="266" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="266" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="141"/>
@@ -28972,68 +28972,68 @@
       <c r="E4" s="141"/>
       <c r="F4" s="141"/>
       <c r="G4" s="141"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
-      <c r="K4" s="267"/>
-      <c r="L4" s="267"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="265"/>
+      <c r="K4" s="265"/>
+      <c r="L4" s="265"/>
+      <c r="M4" s="265"/>
+      <c r="N4" s="265"/>
+      <c r="O4" s="265"/>
+      <c r="P4" s="265"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="271"/>
-      <c r="B5" s="271"/>
-      <c r="C5" s="268" t="s">
+      <c r="A5" s="269"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="266" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="268" t="s">
+      <c r="D5" s="266" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="269"/>
-      <c r="F5" s="268" t="s">
+      <c r="E5" s="267"/>
+      <c r="F5" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="269"/>
-      <c r="H5" s="268" t="s">
+      <c r="G5" s="267"/>
+      <c r="H5" s="266" t="s">
         <v>259</v>
       </c>
-      <c r="I5" s="269"/>
-      <c r="J5" s="268" t="s">
+      <c r="I5" s="267"/>
+      <c r="J5" s="266" t="s">
         <v>260</v>
       </c>
-      <c r="K5" s="269"/>
-      <c r="L5" s="272" t="s">
+      <c r="K5" s="267"/>
+      <c r="L5" s="270" t="s">
         <v>261</v>
       </c>
-      <c r="M5" s="269"/>
-      <c r="N5" s="267" t="s">
+      <c r="M5" s="267"/>
+      <c r="N5" s="265" t="s">
         <v>262</v>
       </c>
-      <c r="O5" s="273"/>
-      <c r="P5" s="268" t="s">
+      <c r="O5" s="271"/>
+      <c r="P5" s="266" t="s">
         <v>266</v>
       </c>
-      <c r="R5" s="263" t="s">
+      <c r="R5" s="273" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="263" t="s">
+      <c r="S5" s="273" t="s">
         <v>290</v>
       </c>
-      <c r="T5" s="263" t="s">
+      <c r="T5" s="273" t="s">
         <v>291</v>
       </c>
       <c r="U5" s="189"/>
-      <c r="V5" s="262" t="s">
+      <c r="V5" s="272" t="s">
         <v>292</v>
       </c>
       <c r="W5" s="172"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" s="270"/>
-      <c r="B6" s="270"/>
-      <c r="C6" s="271"/>
+      <c r="A6" s="268"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="269"/>
       <c r="D6" s="134" t="s">
         <v>2</v>
       </c>
@@ -29070,12 +29070,12 @@
       <c r="O6" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="270"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="268"/>
+      <c r="R6" s="273"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="273"/>
       <c r="U6" s="189"/>
-      <c r="V6" s="263"/>
+      <c r="V6" s="273"/>
       <c r="W6" s="172"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -29113,20 +29113,20 @@
         <v>0</v>
       </c>
       <c r="L7" s="192">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M7" s="192">
-        <v>57758440</v>
+        <v>58110396</v>
       </c>
       <c r="N7" s="193">
-        <v>81.8</v>
+        <v>82.26</v>
       </c>
       <c r="O7" s="193">
-        <v>79.59</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="P7" s="135">
         <f>I7*0.97-M7</f>
-        <v>12638153.760000005</v>
+        <v>12286197.760000005</v>
       </c>
       <c r="R7" s="173" t="s">
         <v>117</v>
@@ -29136,15 +29136,15 @@
         <v>101866340</v>
       </c>
       <c r="T7" s="175">
-        <v>29706906.799999997</v>
+        <v>28618732.799999997</v>
       </c>
       <c r="U7" s="190">
         <f>VLOOKUP(R7,$C$7:$P$27,14,0)</f>
-        <v>29352490.799999997</v>
+        <v>28364732.799999997</v>
       </c>
       <c r="V7" s="175">
         <f>VLOOKUP(R7,$C$7:$P$27,14,0)-T7</f>
-        <v>-354416</v>
+        <v>-254000</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -29182,20 +29182,20 @@
         <v>0</v>
       </c>
       <c r="L8" s="195">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M8" s="195">
-        <v>53205481</v>
+        <v>53991476</v>
       </c>
       <c r="N8" s="196">
-        <v>73.349999999999994</v>
+        <v>74.89</v>
       </c>
       <c r="O8" s="196">
-        <v>75.739999999999995</v>
+        <v>76.86</v>
       </c>
       <c r="P8" s="135">
         <f t="shared" ref="P8:P27" si="0">I8*0.97-M8</f>
-        <v>14930634.459999993</v>
+        <v>14144639.459999993</v>
       </c>
       <c r="R8" s="173" t="s">
         <v>67</v>
@@ -29205,15 +29205,15 @@
         <v>145101823</v>
       </c>
       <c r="T8" s="175">
-        <v>31514944.310000002</v>
+        <v>30365590.310000002</v>
       </c>
       <c r="U8" s="190">
         <f t="shared" ref="U8:U17" si="2">VLOOKUP(R8,$C$7:$P$27,14,0)</f>
-        <v>31134944.310000002</v>
+        <v>30365590.310000002</v>
       </c>
       <c r="V8" s="175">
         <f t="shared" ref="V8:V17" si="3">VLOOKUP(R8,$C$7:$P$27,14,0)-T8</f>
-        <v>-380000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -29251,20 +29251,20 @@
         <v>0</v>
       </c>
       <c r="L9" s="192">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="M9" s="192">
-        <v>109613824</v>
+        <v>110383178</v>
       </c>
       <c r="N9" s="193">
-        <v>73.17</v>
+        <v>73.63</v>
       </c>
       <c r="O9" s="193">
-        <v>75.540000000000006</v>
+        <v>76.069999999999993</v>
       </c>
       <c r="P9" s="135">
         <f t="shared" si="0"/>
-        <v>31134944.310000002</v>
+        <v>30365590.310000002</v>
       </c>
       <c r="R9" s="174" t="s">
         <v>87</v>
@@ -29274,15 +29274,15 @@
         <v>141474291</v>
       </c>
       <c r="T9" s="175">
-        <v>51393984.270000011</v>
+        <v>50188871.270000011</v>
       </c>
       <c r="U9" s="190">
         <f t="shared" si="2"/>
-        <v>50303871.270000011</v>
+        <v>50054171.270000011</v>
       </c>
       <c r="V9" s="175">
         <f t="shared" si="3"/>
-        <v>-1090113</v>
+        <v>-134700</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -29290,16 +29290,16 @@
         <v>288</v>
       </c>
       <c r="B10" s="194" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C10" s="194" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D10" s="195">
-        <v>559</v>
+        <v>716</v>
       </c>
       <c r="E10" s="195">
-        <v>93597302</v>
+        <v>116427734</v>
       </c>
       <c r="F10" s="195">
         <v>0</v>
@@ -29308,32 +29308,32 @@
         <v>0</v>
       </c>
       <c r="H10" s="195">
-        <v>559</v>
+        <v>716</v>
       </c>
       <c r="I10" s="195">
-        <v>93597302</v>
+        <v>116427734</v>
       </c>
       <c r="J10" s="195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="195">
-        <v>0</v>
+        <v>201200</v>
       </c>
       <c r="L10" s="195">
-        <v>400</v>
+        <v>513</v>
       </c>
       <c r="M10" s="195">
-        <v>68792554</v>
+        <v>86580486</v>
       </c>
       <c r="N10" s="196">
-        <v>71.56</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="O10" s="196">
-        <v>73.5</v>
+        <v>74.36</v>
       </c>
       <c r="P10" s="135">
         <f t="shared" si="0"/>
-        <v>21996828.939999998</v>
+        <v>26354415.980000004</v>
       </c>
       <c r="R10" s="174" t="s">
         <v>110</v>
@@ -29343,15 +29343,15 @@
         <v>149379338</v>
       </c>
       <c r="T10" s="175">
-        <v>74164324.859999985</v>
+        <v>72271520.859999985</v>
       </c>
       <c r="U10" s="190">
         <f t="shared" si="2"/>
-        <v>73342657.859999985</v>
+        <v>72071520.859999985</v>
       </c>
       <c r="V10" s="175">
         <f t="shared" si="3"/>
-        <v>-821667</v>
+        <v>-200000</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -29389,20 +29389,20 @@
         <v>0</v>
       </c>
       <c r="L11" s="192">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M11" s="192">
-        <v>38121943</v>
+        <v>38643492</v>
       </c>
       <c r="N11" s="193">
-        <v>72.08</v>
+        <v>73.7</v>
       </c>
       <c r="O11" s="193">
-        <v>73.34</v>
+        <v>74.34</v>
       </c>
       <c r="P11" s="135">
         <f t="shared" si="0"/>
-        <v>12300981.119999997</v>
+        <v>11779432.119999997</v>
       </c>
       <c r="R11" s="173" t="s">
         <v>99</v>
@@ -29412,15 +29412,15 @@
         <v>105953075</v>
       </c>
       <c r="T11" s="175">
-        <v>48270308.75</v>
+        <v>47316978.75</v>
       </c>
       <c r="U11" s="190">
         <f t="shared" si="2"/>
-        <v>48042097.75</v>
+        <v>47316978.75</v>
       </c>
       <c r="V11" s="175">
         <f t="shared" si="3"/>
-        <v>-228211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
@@ -29428,16 +29428,16 @@
         <v>288</v>
       </c>
       <c r="B12" s="194" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C12" s="194" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D12" s="195">
-        <v>716</v>
+        <v>559</v>
       </c>
       <c r="E12" s="195">
-        <v>116427734</v>
+        <v>93597302</v>
       </c>
       <c r="F12" s="195">
         <v>0</v>
@@ -29446,32 +29446,32 @@
         <v>0</v>
       </c>
       <c r="H12" s="195">
-        <v>716</v>
+        <v>559</v>
       </c>
       <c r="I12" s="195">
-        <v>116427734</v>
+        <v>93597302</v>
       </c>
       <c r="J12" s="195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="195">
-        <v>0</v>
+        <v>196536</v>
       </c>
       <c r="L12" s="195">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="M12" s="195">
-        <v>85296755</v>
+        <v>69366609</v>
       </c>
       <c r="N12" s="196">
-        <v>70.53</v>
+        <v>72.27</v>
       </c>
       <c r="O12" s="196">
-        <v>73.260000000000005</v>
+        <v>74.11</v>
       </c>
       <c r="P12" s="135">
         <f t="shared" si="0"/>
-        <v>27638146.980000004</v>
+        <v>21422773.939999998</v>
       </c>
       <c r="R12" s="173" t="s">
         <v>75</v>
@@ -29481,15 +29481,15 @@
         <v>152862316</v>
       </c>
       <c r="T12" s="175">
-        <v>40481857.520000011</v>
+        <v>38132448.520000011</v>
       </c>
       <c r="U12" s="190">
         <f t="shared" si="2"/>
-        <v>39211857.520000011</v>
+        <v>37892448.520000011</v>
       </c>
       <c r="V12" s="175">
         <f t="shared" si="3"/>
-        <v>-1270000</v>
+        <v>-240000</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
@@ -29527,20 +29527,20 @@
         <v>0</v>
       </c>
       <c r="L13" s="192">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="M13" s="192">
-        <v>136817073</v>
+        <v>137944981</v>
       </c>
       <c r="N13" s="193">
-        <v>71.040000000000006</v>
+        <v>71.459999999999994</v>
       </c>
       <c r="O13" s="193">
-        <v>72.14</v>
+        <v>72.73</v>
       </c>
       <c r="P13" s="135">
         <f t="shared" si="0"/>
-        <v>47149395.409999996</v>
+        <v>46021487.409999996</v>
       </c>
       <c r="R13" s="173" t="s">
         <v>107</v>
@@ -29550,15 +29550,15 @@
         <v>180440547</v>
       </c>
       <c r="T13" s="175">
-        <v>47325247.590000004</v>
+        <v>44412237.590000004</v>
       </c>
       <c r="U13" s="190">
         <f t="shared" si="2"/>
-        <v>46507428.590000004</v>
+        <v>44203687.590000004</v>
       </c>
       <c r="V13" s="175">
         <f t="shared" si="3"/>
-        <v>-817819</v>
+        <v>-208550</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
@@ -29566,16 +29566,16 @@
         <v>129</v>
       </c>
       <c r="B14" s="194" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C14" s="194" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D14" s="195">
-        <v>941</v>
+        <v>1048</v>
       </c>
       <c r="E14" s="195">
-        <v>152862316</v>
+        <v>180440547</v>
       </c>
       <c r="F14" s="195">
         <v>0</v>
@@ -29584,32 +29584,32 @@
         <v>0</v>
       </c>
       <c r="H14" s="195">
-        <v>941</v>
+        <v>1048</v>
       </c>
       <c r="I14" s="195">
-        <v>152862316</v>
+        <v>180440547</v>
       </c>
       <c r="J14" s="195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="195">
-        <v>0</v>
+        <v>163550</v>
       </c>
       <c r="L14" s="195">
-        <v>633</v>
+        <v>737</v>
       </c>
       <c r="M14" s="195">
-        <v>109064589</v>
+        <v>130823643</v>
       </c>
       <c r="N14" s="196">
-        <v>67.27</v>
+        <v>70.319999999999993</v>
       </c>
       <c r="O14" s="196">
-        <v>71.349999999999994</v>
+        <v>72.5</v>
       </c>
       <c r="P14" s="135">
         <f t="shared" si="0"/>
-        <v>39211857.520000011</v>
+        <v>44203687.590000004</v>
       </c>
       <c r="R14" s="174" t="s">
         <v>72</v>
@@ -29619,15 +29619,15 @@
         <v>162344260</v>
       </c>
       <c r="T14" s="175">
-        <v>54899043.199999988</v>
+        <v>52786721.199999988</v>
       </c>
       <c r="U14" s="190">
         <f t="shared" si="2"/>
-        <v>53941079.199999988</v>
+        <v>52686721.199999988</v>
       </c>
       <c r="V14" s="175">
         <f t="shared" si="3"/>
-        <v>-957964</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -29635,16 +29635,16 @@
         <v>129</v>
       </c>
       <c r="B15" s="191" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C15" s="191" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D15" s="192">
-        <v>1048</v>
+        <v>941</v>
       </c>
       <c r="E15" s="192">
-        <v>180440547</v>
+        <v>152862316</v>
       </c>
       <c r="F15" s="192">
         <v>0</v>
@@ -29653,10 +29653,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="192">
-        <v>1048</v>
+        <v>941</v>
       </c>
       <c r="I15" s="192">
-        <v>180440547</v>
+        <v>152862316</v>
       </c>
       <c r="J15" s="192">
         <v>0</v>
@@ -29665,20 +29665,20 @@
         <v>0</v>
       </c>
       <c r="L15" s="192">
-        <v>725</v>
+        <v>641</v>
       </c>
       <c r="M15" s="192">
-        <v>128519902</v>
+        <v>110383998</v>
       </c>
       <c r="N15" s="193">
-        <v>69.180000000000007</v>
+        <v>68.12</v>
       </c>
       <c r="O15" s="193">
-        <v>71.23</v>
+        <v>72.209999999999994</v>
       </c>
       <c r="P15" s="135">
         <f t="shared" si="0"/>
-        <v>46507428.590000004</v>
+        <v>37892448.520000011</v>
       </c>
       <c r="R15" s="174" t="s">
         <v>113</v>
@@ -29688,15 +29688,15 @@
         <v>194517020</v>
       </c>
       <c r="T15" s="175">
-        <v>73856161.400000006</v>
+        <v>69343903.400000006</v>
       </c>
       <c r="U15" s="190">
         <f t="shared" si="2"/>
-        <v>72499143.400000006</v>
+        <v>69099226.400000006</v>
       </c>
       <c r="V15" s="175">
         <f t="shared" si="3"/>
-        <v>-1357018</v>
+        <v>-244677</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -29704,16 +29704,16 @@
         <v>288</v>
       </c>
       <c r="B16" s="194" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C16" s="194" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D16" s="195">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="E16" s="195">
-        <v>53605661</v>
+        <v>66800107</v>
       </c>
       <c r="F16" s="195">
         <v>0</v>
@@ -29722,10 +29722,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="195">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="I16" s="195">
-        <v>53605661</v>
+        <v>66800107</v>
       </c>
       <c r="J16" s="195">
         <v>0</v>
@@ -29734,20 +29734,20 @@
         <v>0</v>
       </c>
       <c r="L16" s="195">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="M16" s="195">
-        <v>36880160</v>
+        <v>47203487</v>
       </c>
       <c r="N16" s="196">
-        <v>64.89</v>
+        <v>67.47</v>
       </c>
       <c r="O16" s="196">
-        <v>68.8</v>
+        <v>70.66</v>
       </c>
       <c r="P16" s="135">
         <f t="shared" si="0"/>
-        <v>15117331.170000002</v>
+        <v>17592616.789999999</v>
       </c>
       <c r="R16" s="174" t="s">
         <v>119</v>
@@ -29757,15 +29757,15 @@
         <v>189656153</v>
       </c>
       <c r="T16" s="175">
-        <v>48363643.409999996</v>
+        <v>46381487.409999996</v>
       </c>
       <c r="U16" s="190">
         <f t="shared" si="2"/>
-        <v>47149395.409999996</v>
+        <v>46021487.409999996</v>
       </c>
       <c r="V16" s="175">
         <f t="shared" si="3"/>
-        <v>-1214248</v>
+        <v>-360000</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -29773,16 +29773,16 @@
         <v>288</v>
       </c>
       <c r="B17" s="191" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D17" s="192">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="E17" s="192">
-        <v>66800107</v>
+        <v>53605661</v>
       </c>
       <c r="F17" s="192">
         <v>0</v>
@@ -29791,10 +29791,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="192">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="I17" s="192">
-        <v>66800107</v>
+        <v>53605661</v>
       </c>
       <c r="J17" s="192">
         <v>0</v>
@@ -29803,20 +29803,20 @@
         <v>0</v>
       </c>
       <c r="L17" s="192">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="M17" s="192">
-        <v>45734536</v>
+        <v>37565198</v>
       </c>
       <c r="N17" s="193">
-        <v>65.540000000000006</v>
+        <v>65.73</v>
       </c>
       <c r="O17" s="193">
-        <v>68.459999999999994</v>
+        <v>70.08</v>
       </c>
       <c r="P17" s="135">
         <f t="shared" si="0"/>
-        <v>19061567.789999999</v>
+        <v>14432293.170000002</v>
       </c>
       <c r="R17" s="173" t="s">
         <v>84</v>
@@ -29826,32 +29826,32 @@
         <v>95369711</v>
       </c>
       <c r="T17" s="175">
-        <v>47701941.670000002</v>
+        <v>46235591.670000002</v>
       </c>
       <c r="U17" s="190">
         <f t="shared" si="2"/>
-        <v>47159441.670000002</v>
+        <v>46235591.670000002</v>
       </c>
       <c r="V17" s="175">
         <f t="shared" si="3"/>
-        <v>-542500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="194" t="s">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="B18" s="194" t="s">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="C18" s="194" t="s">
-        <v>284</v>
+        <v>117</v>
       </c>
       <c r="D18" s="195">
-        <v>318</v>
+        <v>642</v>
       </c>
       <c r="E18" s="195">
-        <v>50351985</v>
+        <v>101866340</v>
       </c>
       <c r="F18" s="195">
         <v>0</v>
@@ -29860,10 +29860,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="195">
-        <v>318</v>
+        <v>642</v>
       </c>
       <c r="I18" s="195">
-        <v>50351985</v>
+        <v>101866340</v>
       </c>
       <c r="J18" s="195">
         <v>0</v>
@@ -29872,37 +29872,37 @@
         <v>0</v>
       </c>
       <c r="L18" s="195">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="M18" s="195">
-        <v>34434236</v>
+        <v>70445617</v>
       </c>
       <c r="N18" s="196">
-        <v>65.09</v>
+        <v>66.36</v>
       </c>
       <c r="O18" s="196">
-        <v>68.39</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="P18" s="135">
         <f t="shared" si="0"/>
-        <v>14407189.449999996</v>
+        <v>28364732.799999997</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="191" t="s">
-        <v>128</v>
+        <v>288</v>
       </c>
       <c r="B19" s="191" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C19" s="191" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="D19" s="192">
-        <v>642</v>
+        <v>318</v>
       </c>
       <c r="E19" s="192">
-        <v>101866340</v>
+        <v>50351985</v>
       </c>
       <c r="F19" s="192">
         <v>0</v>
@@ -29911,10 +29911,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="192">
-        <v>642</v>
+        <v>318</v>
       </c>
       <c r="I19" s="192">
-        <v>101866340</v>
+        <v>50351985</v>
       </c>
       <c r="J19" s="192">
         <v>0</v>
@@ -29923,20 +29923,20 @@
         <v>0</v>
       </c>
       <c r="L19" s="192">
-        <v>421</v>
+        <v>209</v>
       </c>
       <c r="M19" s="192">
-        <v>69457859</v>
+        <v>34697236</v>
       </c>
       <c r="N19" s="193">
-        <v>65.58</v>
+        <v>65.72</v>
       </c>
       <c r="O19" s="193">
-        <v>68.19</v>
+        <v>68.91</v>
       </c>
       <c r="P19" s="135">
         <f t="shared" si="0"/>
-        <v>29352490.799999997</v>
+        <v>14144189.449999996</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -29971,23 +29971,23 @@
         <v>1</v>
       </c>
       <c r="K20" s="195">
-        <v>210000</v>
+        <v>100000</v>
       </c>
       <c r="L20" s="195">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M20" s="195">
-        <v>103532853</v>
+        <v>104787211</v>
       </c>
       <c r="N20" s="196">
-        <v>63.12</v>
+        <v>64.05</v>
       </c>
       <c r="O20" s="196">
-        <v>63.77</v>
+        <v>64.55</v>
       </c>
       <c r="P20" s="135">
         <f t="shared" si="0"/>
-        <v>53941079.199999988</v>
+        <v>52686721.199999988</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -30019,26 +30019,26 @@
         <v>141474291</v>
       </c>
       <c r="J21" s="192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="192">
-        <v>279610</v>
+        <v>0</v>
       </c>
       <c r="L21" s="192">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M21" s="192">
-        <v>86926191</v>
+        <v>87175891</v>
       </c>
       <c r="N21" s="193">
-        <v>60.26</v>
+        <v>60.61</v>
       </c>
       <c r="O21" s="193">
-        <v>61.44</v>
+        <v>61.62</v>
       </c>
       <c r="P21" s="135">
         <f t="shared" si="0"/>
-        <v>50303871.270000011</v>
+        <v>50054171.270000011</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -30070,26 +30070,26 @@
         <v>194517020</v>
       </c>
       <c r="J22" s="195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="195">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="L22" s="195">
-        <v>696</v>
+        <v>719</v>
       </c>
       <c r="M22" s="195">
-        <v>116182366</v>
+        <v>119582283</v>
       </c>
       <c r="N22" s="196">
-        <v>58.1</v>
+        <v>60.02</v>
       </c>
       <c r="O22" s="196">
-        <v>59.73</v>
+        <v>61.48</v>
       </c>
       <c r="P22" s="135">
         <f t="shared" si="0"/>
-        <v>72499143.400000006</v>
+        <v>69099226.400000006</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -30127,20 +30127,20 @@
         <v>0</v>
       </c>
       <c r="L23" s="192">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M23" s="192">
-        <v>46878043</v>
+        <v>48064235</v>
       </c>
       <c r="N23" s="193">
-        <v>50.92</v>
+        <v>51.65</v>
       </c>
       <c r="O23" s="193">
-        <v>52.16</v>
+        <v>53.48</v>
       </c>
       <c r="P23" s="135">
         <f t="shared" si="0"/>
-        <v>40305552.149999991</v>
+        <v>39119360.149999991</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -30178,20 +30178,20 @@
         <v>0</v>
       </c>
       <c r="L24" s="195">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M24" s="195">
-        <v>54732385</v>
+        <v>55457504</v>
       </c>
       <c r="N24" s="196">
-        <v>50.51</v>
+        <v>51.24</v>
       </c>
       <c r="O24" s="196">
-        <v>51.66</v>
+        <v>52.34</v>
       </c>
       <c r="P24" s="135">
         <f t="shared" si="0"/>
-        <v>48042097.75</v>
+        <v>47316978.75</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -30223,26 +30223,26 @@
         <v>149379338</v>
       </c>
       <c r="J25" s="192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="192">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="L25" s="192">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M25" s="192">
-        <v>71555300</v>
+        <v>72826437</v>
       </c>
       <c r="N25" s="193">
-        <v>48.99</v>
+        <v>49.78</v>
       </c>
       <c r="O25" s="193">
-        <v>47.9</v>
+        <v>48.75</v>
       </c>
       <c r="P25" s="135">
         <f t="shared" si="0"/>
-        <v>73342657.859999985</v>
+        <v>72071520.859999985</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -30280,20 +30280,20 @@
         <v>0</v>
       </c>
       <c r="L26" s="195">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M26" s="195">
-        <v>45349178</v>
+        <v>46273028</v>
       </c>
       <c r="N26" s="196">
-        <v>45.92</v>
+        <v>46.77</v>
       </c>
       <c r="O26" s="196">
-        <v>47.55</v>
+        <v>48.52</v>
       </c>
       <c r="P26" s="135">
         <f t="shared" si="0"/>
-        <v>47159441.670000002</v>
+        <v>46235591.670000002</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -30331,26 +30331,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="192">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M27" s="192">
-        <v>30173948</v>
+        <v>31354914</v>
       </c>
       <c r="N27" s="193">
-        <v>28.84</v>
+        <v>29.87</v>
       </c>
       <c r="O27" s="193">
-        <v>28.47</v>
+        <v>29.58</v>
       </c>
       <c r="P27" s="135">
         <f t="shared" si="0"/>
-        <v>72629897.61999999</v>
+        <v>71448931.61999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
@@ -30367,6 +30365,8 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="P7:P27">

--- a/filetiendo.xlsx
+++ b/filetiendo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\viettel 2026\thang 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F1F6F5-241C-4C1B-8706-8C57FD36B8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371C08F-3265-4259-A3FE-99F7E307F9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="808" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4737,6 +4737,20 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4746,25 +4760,11 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="21" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="8" builtinId="3"/>
@@ -6769,15 +6769,15 @@
       </c>
       <c r="AO5" s="13">
         <f>VLOOKUP(C5,GBOC!$E$7:$DG$29,$B$29,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP5" s="14">
         <f t="shared" ref="AP5:AP18" si="18">200%-IFERROR(AO5/AN5,0)</f>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5" s="67">
         <f t="shared" ref="AQ5:AQ18" si="19">MAX(AP5,0)</f>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR5" s="33">
         <v>0.97</v>
@@ -7468,15 +7468,15 @@
       </c>
       <c r="AO8" s="13">
         <f>VLOOKUP(C8,GBOC!$E$7:$DG$29,$B$29,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="14">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ8" s="67">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AR8" s="33">
         <v>0.97</v>
@@ -7701,15 +7701,15 @@
       </c>
       <c r="AO9" s="13">
         <f>VLOOKUP(C9,GBOC!$E$7:$DG$29,$B$29,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="14">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" s="67">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR9" s="33">
         <v>0.97</v>
@@ -8120,15 +8120,15 @@
       </c>
       <c r="AC11" s="13">
         <f>VLOOKUP(C11,GBOC!$E$7:$DG$29,$B$26,0)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD11" s="14">
         <f t="shared" si="12"/>
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AE11" s="52">
         <f t="shared" si="13"/>
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="AF11" s="57">
         <f>VLOOKUP(C11,'Giao CT'!$D$6:$S$20,10,0)</f>
@@ -8167,15 +8167,15 @@
       </c>
       <c r="AO11" s="13">
         <f>VLOOKUP(C11,GBOC!$E$7:$DG$29,$B$29,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="14">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" s="67">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR11" s="33">
         <v>0.97</v>
@@ -8866,15 +8866,15 @@
       </c>
       <c r="AO14" s="13">
         <f>VLOOKUP(C14,GBOC!$E$7:$DG$29,$B$29,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14" s="14">
         <f t="shared" si="18"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ14" s="67">
         <f t="shared" si="19"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AR14" s="33">
         <v>0.97</v>
@@ -10715,15 +10715,15 @@
       </c>
       <c r="D5" s="74">
         <f>VLOOKUP($B$2,'TH NV'!$A$5:$BG$18,N10,0)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="46">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="F5" s="46">
         <f t="shared" si="1"/>
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G5" s="127">
         <v>10</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="J5" s="65">
         <f t="shared" si="2"/>
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="K5" s="221"/>
       <c r="L5" s="118" t="s">
@@ -10965,15 +10965,15 @@
       </c>
       <c r="D10" s="74">
         <f>VLOOKUP($B$2,'TH NV'!$A$5:$BG$18,N13,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="46">
         <f>200%-IFERROR(D10/C10,2)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F10" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G10" s="127">
         <v>10</v>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="J10" s="65">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="221"/>
       <c r="L10" s="119" t="s">
@@ -11861,15 +11861,15 @@
       </c>
       <c r="AO4" s="13">
         <f>VLOOKUP(A4,GBOC!$E$7:$DG$29,$B$30,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP4" s="14">
         <f t="shared" ref="AP4" si="18">200%-IFERROR(AO4/AN4,0)</f>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4" s="67">
         <f t="shared" ref="AQ4" si="19">MAX(AP4,0)</f>
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR4" s="33">
         <v>0.97</v>
@@ -12047,15 +12047,15 @@
       </c>
       <c r="AC5" s="13">
         <f>VLOOKUP(A5,GBOC!$E$7:$DG$29,$B$27,0)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD5" s="14">
         <f t="shared" ref="AD5:AD16" si="40">IFERROR(AC5/AB5,0)</f>
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AE5" s="52">
         <f t="shared" ref="AE5:AE16" si="41">AB5-AC5</f>
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="AF5" s="57">
         <f>VLOOKUP(A5,'Giao CT'!$D$6:$S$20,10,0)</f>
@@ -12095,15 +12095,15 @@
       </c>
       <c r="AO5" s="13">
         <f>VLOOKUP(A5,GBOC!$E$7:$DG$29,$B$30,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="14">
         <f t="shared" ref="AP5:AP16" si="46">200%-IFERROR(AO5/AN5,0)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5" s="67">
         <f t="shared" ref="AQ5:AQ16" si="47">MAX(AP5,0)</f>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR5" s="33">
         <v>0.97</v>
@@ -12563,15 +12563,15 @@
       </c>
       <c r="AO7" s="13">
         <f>VLOOKUP(A7,GBOC!$E$7:$DG$29,$B$30,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="14">
         <f t="shared" si="46"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7" s="67">
         <f t="shared" si="47"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AR7" s="33">
         <v>0.97</v>
@@ -13560,15 +13560,15 @@
       </c>
       <c r="AO12" s="13">
         <f>VLOOKUP(A12,GBOC!$E$7:$DG$29,$B$30,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="14">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ12" s="67">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AR12" s="33">
         <v>0.97</v>
@@ -15088,7 +15088,7 @@
   <dimension ref="A1:DG29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="E7" sqref="E7:DG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15976,7 +15976,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="197">
-        <v>252.63</v>
+        <v>240</v>
       </c>
       <c r="M7" s="197">
         <v>171.43</v>
@@ -16000,7 +16000,7 @@
         <v>6</v>
       </c>
       <c r="T7" s="197">
-        <v>221.05</v>
+        <v>210</v>
       </c>
       <c r="U7" s="197">
         <v>150</v>
@@ -16084,7 +16084,7 @@
         <v>100</v>
       </c>
       <c r="AV7" s="197">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW7" s="197">
         <v>35</v>
@@ -16096,7 +16096,7 @@
         <v>37</v>
       </c>
       <c r="AZ7" s="197">
-        <v>155.79</v>
+        <v>148</v>
       </c>
       <c r="BA7" s="197">
         <v>105.71</v>
@@ -16108,7 +16108,7 @@
         <v>100</v>
       </c>
       <c r="BD7" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE7" s="197">
         <v>5</v>
@@ -16120,7 +16120,7 @@
         <v>4</v>
       </c>
       <c r="BH7" s="197">
-        <v>117.89</v>
+        <v>112</v>
       </c>
       <c r="BI7" s="197">
         <v>80</v>
@@ -16180,7 +16180,7 @@
         <v>100</v>
       </c>
       <c r="CB7" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC7" s="197">
         <v>8</v>
@@ -16192,7 +16192,7 @@
         <v>5</v>
       </c>
       <c r="CF7" s="197">
-        <v>92.11</v>
+        <v>87.5</v>
       </c>
       <c r="CG7" s="197">
         <v>62.5</v>
@@ -16216,7 +16216,7 @@
         <v>9</v>
       </c>
       <c r="CN7" s="197">
-        <v>331.58</v>
+        <v>315</v>
       </c>
       <c r="CO7" s="197">
         <v>225</v>
@@ -16240,7 +16240,7 @@
         <v>5</v>
       </c>
       <c r="CV7" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="CW7" s="197">
         <v>125</v>
@@ -16264,16 +16264,16 @@
         <v>6</v>
       </c>
       <c r="DD7" s="197">
-        <v>884.21</v>
+        <v>840</v>
       </c>
       <c r="DE7" s="197">
         <v>600</v>
       </c>
       <c r="DF7" s="197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG7" s="197">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:111" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -16311,7 +16311,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="197">
-        <v>252.63</v>
+        <v>240</v>
       </c>
       <c r="M8" s="197">
         <v>171.43</v>
@@ -16335,7 +16335,7 @@
         <v>4</v>
       </c>
       <c r="T8" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="U8" s="197">
         <v>100</v>
@@ -16371,7 +16371,7 @@
         <v>100</v>
       </c>
       <c r="AF8" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG8" s="197">
         <v>5</v>
@@ -16383,7 +16383,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" s="197">
-        <v>141.05000000000001</v>
+        <v>144</v>
       </c>
       <c r="AK8" s="197">
         <v>160</v>
@@ -16419,7 +16419,7 @@
         <v>100</v>
       </c>
       <c r="AV8" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW8" s="197">
         <v>30</v>
@@ -16431,7 +16431,7 @@
         <v>71</v>
       </c>
       <c r="AZ8" s="197">
-        <v>348.77</v>
+        <v>331.33</v>
       </c>
       <c r="BA8" s="197">
         <v>236.67</v>
@@ -16443,7 +16443,7 @@
         <v>2266.67</v>
       </c>
       <c r="BD8" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE8" s="197">
         <v>5</v>
@@ -16455,7 +16455,7 @@
         <v>5</v>
       </c>
       <c r="BH8" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BI8" s="197">
         <v>100</v>
@@ -16515,7 +16515,7 @@
         <v>100</v>
       </c>
       <c r="CB8" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC8" s="197">
         <v>8</v>
@@ -16527,7 +16527,7 @@
         <v>10</v>
       </c>
       <c r="CF8" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="CG8" s="197">
         <v>125</v>
@@ -16551,7 +16551,7 @@
         <v>7</v>
       </c>
       <c r="CN8" s="197">
-        <v>257.89</v>
+        <v>245</v>
       </c>
       <c r="CO8" s="197">
         <v>175</v>
@@ -16575,7 +16575,7 @@
         <v>4</v>
       </c>
       <c r="CV8" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CW8" s="197">
         <v>100</v>
@@ -16599,7 +16599,7 @@
         <v>6</v>
       </c>
       <c r="DD8" s="197">
-        <v>884.21</v>
+        <v>840</v>
       </c>
       <c r="DE8" s="197">
         <v>600</v>
@@ -16646,7 +16646,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="197">
-        <v>252.63</v>
+        <v>240</v>
       </c>
       <c r="M9" s="197">
         <v>171.43</v>
@@ -16670,7 +16670,7 @@
         <v>4</v>
       </c>
       <c r="T9" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="U9" s="197">
         <v>100</v>
@@ -16694,7 +16694,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="AC9" s="197">
         <v>33.33</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="197">
         <v>5</v>
@@ -16754,7 +16754,7 @@
         <v>100</v>
       </c>
       <c r="AV9" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW9" s="197">
         <v>30</v>
@@ -16766,7 +16766,7 @@
         <v>27</v>
       </c>
       <c r="AZ9" s="197">
-        <v>132.63</v>
+        <v>126</v>
       </c>
       <c r="BA9" s="197">
         <v>90</v>
@@ -16778,7 +16778,7 @@
         <v>100</v>
       </c>
       <c r="BD9" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE9" s="197">
         <v>5</v>
@@ -16790,7 +16790,7 @@
         <v>5</v>
       </c>
       <c r="BH9" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BI9" s="197">
         <v>100</v>
@@ -16850,7 +16850,7 @@
         <v>100</v>
       </c>
       <c r="CB9" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC9" s="197">
         <v>8</v>
@@ -16862,7 +16862,7 @@
         <v>6</v>
       </c>
       <c r="CF9" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CG9" s="197">
         <v>75</v>
@@ -16886,7 +16886,7 @@
         <v>3</v>
       </c>
       <c r="CN9" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CO9" s="197">
         <v>75</v>
@@ -16910,7 +16910,7 @@
         <v>5</v>
       </c>
       <c r="CV9" s="197">
-        <v>245.61</v>
+        <v>233.33</v>
       </c>
       <c r="CW9" s="197">
         <v>166.67</v>
@@ -16934,7 +16934,7 @@
         <v>2</v>
       </c>
       <c r="DD9" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="DE9" s="197">
         <v>200</v>
@@ -16981,7 +16981,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="197">
-        <v>105.26</v>
+        <v>100</v>
       </c>
       <c r="M10" s="197">
         <v>71.430000000000007</v>
@@ -17005,7 +17005,7 @@
         <v>4</v>
       </c>
       <c r="T10" s="197">
-        <v>196.49</v>
+        <v>186.67</v>
       </c>
       <c r="U10" s="197">
         <v>133.33000000000001</v>
@@ -17050,13 +17050,13 @@
         <v>0</v>
       </c>
       <c r="AI10" s="197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="197">
-        <v>200</v>
+        <v>153.33000000000001</v>
       </c>
       <c r="AK10" s="197">
-        <v>200</v>
+        <v>166.67</v>
       </c>
       <c r="AL10" s="197">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>100</v>
       </c>
       <c r="AV10" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" s="197">
         <v>30</v>
@@ -17101,7 +17101,7 @@
         <v>9</v>
       </c>
       <c r="AZ10" s="197">
-        <v>44.21</v>
+        <v>42</v>
       </c>
       <c r="BA10" s="197">
         <v>30</v>
@@ -17125,7 +17125,7 @@
         <v>2</v>
       </c>
       <c r="BH10" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="BI10" s="197">
         <v>50</v>
@@ -17185,7 +17185,7 @@
         <v>100</v>
       </c>
       <c r="CB10" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC10" s="197">
         <v>8</v>
@@ -17221,7 +17221,7 @@
         <v>3</v>
       </c>
       <c r="CN10" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CO10" s="197">
         <v>75</v>
@@ -17316,7 +17316,7 @@
         <v>8</v>
       </c>
       <c r="L11" s="197">
-        <v>168.42</v>
+        <v>160</v>
       </c>
       <c r="M11" s="197">
         <v>114.29</v>
@@ -17340,7 +17340,7 @@
         <v>4</v>
       </c>
       <c r="T11" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="U11" s="197">
         <v>100</v>
@@ -17385,13 +17385,13 @@
         <v>0</v>
       </c>
       <c r="AI11" s="197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="197">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK11" s="197">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AL11" s="197">
         <v>0</v>
@@ -17424,7 +17424,7 @@
         <v>100</v>
       </c>
       <c r="AV11" s="197">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AW11" s="197">
         <v>40</v>
@@ -17436,7 +17436,7 @@
         <v>84</v>
       </c>
       <c r="AZ11" s="197">
-        <v>309.47000000000003</v>
+        <v>294</v>
       </c>
       <c r="BA11" s="197">
         <v>210</v>
@@ -17448,7 +17448,7 @@
         <v>8300</v>
       </c>
       <c r="BD11" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE11" s="197">
         <v>5</v>
@@ -17460,7 +17460,7 @@
         <v>4</v>
       </c>
       <c r="BH11" s="197">
-        <v>117.89</v>
+        <v>112</v>
       </c>
       <c r="BI11" s="197">
         <v>80</v>
@@ -17508,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="BX11" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY11" s="197">
         <v>100</v>
@@ -17520,7 +17520,7 @@
         <v>100</v>
       </c>
       <c r="CB11" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC11" s="197">
         <v>8</v>
@@ -17532,7 +17532,7 @@
         <v>7</v>
       </c>
       <c r="CF11" s="197">
-        <v>128.94999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="CG11" s="197">
         <v>87.5</v>
@@ -17556,7 +17556,7 @@
         <v>3</v>
       </c>
       <c r="CN11" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CO11" s="197">
         <v>75</v>
@@ -17580,7 +17580,7 @@
         <v>3</v>
       </c>
       <c r="CV11" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CW11" s="197">
         <v>75</v>
@@ -17604,7 +17604,7 @@
         <v>8</v>
       </c>
       <c r="DD11" s="197">
-        <v>1178.95</v>
+        <v>1120</v>
       </c>
       <c r="DE11" s="197">
         <v>800</v>
@@ -17651,7 +17651,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="197">
-        <v>105.26</v>
+        <v>100</v>
       </c>
       <c r="M12" s="197">
         <v>71.430000000000007</v>
@@ -17675,7 +17675,7 @@
         <v>2</v>
       </c>
       <c r="T12" s="197">
-        <v>98.25</v>
+        <v>93.33</v>
       </c>
       <c r="U12" s="197">
         <v>66.67</v>
@@ -17759,7 +17759,7 @@
         <v>100</v>
       </c>
       <c r="AV12" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW12" s="197">
         <v>30</v>
@@ -17771,7 +17771,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" s="197">
-        <v>127.72</v>
+        <v>121.33</v>
       </c>
       <c r="BA12" s="197">
         <v>86.67</v>
@@ -17795,7 +17795,7 @@
         <v>1</v>
       </c>
       <c r="BH12" s="197">
-        <v>36.840000000000003</v>
+        <v>35</v>
       </c>
       <c r="BI12" s="197">
         <v>25</v>
@@ -17855,7 +17855,7 @@
         <v>100</v>
       </c>
       <c r="CB12" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC12" s="197">
         <v>8</v>
@@ -17867,7 +17867,7 @@
         <v>3</v>
       </c>
       <c r="CF12" s="197">
-        <v>55.26</v>
+        <v>52.5</v>
       </c>
       <c r="CG12" s="197">
         <v>37.5</v>
@@ -17891,7 +17891,7 @@
         <v>2</v>
       </c>
       <c r="CN12" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="CO12" s="197">
         <v>50</v>
@@ -17915,7 +17915,7 @@
         <v>3</v>
       </c>
       <c r="CV12" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CW12" s="197">
         <v>100</v>
@@ -17939,7 +17939,7 @@
         <v>2</v>
       </c>
       <c r="DD12" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="DE12" s="197">
         <v>200</v>
@@ -17974,7 +17974,7 @@
         <v>128</v>
       </c>
       <c r="H13" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="197">
         <v>8</v>
@@ -17986,7 +17986,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="M13" s="197">
         <v>100</v>
@@ -18010,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="T13" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="U13" s="197">
         <v>75</v>
@@ -18046,7 +18046,7 @@
         <v>-100</v>
       </c>
       <c r="AF13" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="197">
         <v>5</v>
@@ -18055,13 +18055,13 @@
         <v>0</v>
       </c>
       <c r="AI13" s="197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="197">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AK13" s="197">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AL13" s="197">
         <v>0</v>
@@ -18094,7 +18094,7 @@
         <v>100</v>
       </c>
       <c r="AV13" s="197">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW13" s="197">
         <v>50</v>
@@ -18103,13 +18103,13 @@
         <v>0</v>
       </c>
       <c r="AY13" s="197">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ13" s="197">
-        <v>194.53</v>
+        <v>193.2</v>
       </c>
       <c r="BA13" s="197">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="BB13" s="197">
         <v>0</v>
@@ -18118,7 +18118,7 @@
         <v>100</v>
       </c>
       <c r="BD13" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE13" s="197">
         <v>5</v>
@@ -18130,7 +18130,7 @@
         <v>4</v>
       </c>
       <c r="BH13" s="197">
-        <v>117.89</v>
+        <v>112</v>
       </c>
       <c r="BI13" s="197">
         <v>80</v>
@@ -18202,7 +18202,7 @@
         <v>11</v>
       </c>
       <c r="CF13" s="197">
-        <v>180.12</v>
+        <v>171.11</v>
       </c>
       <c r="CG13" s="197">
         <v>122.22</v>
@@ -18214,7 +18214,7 @@
         <v>100</v>
       </c>
       <c r="CJ13" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK13" s="197">
         <v>5</v>
@@ -18226,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="CN13" s="197">
-        <v>29.47</v>
+        <v>28</v>
       </c>
       <c r="CO13" s="197">
         <v>20</v>
@@ -18250,7 +18250,7 @@
         <v>3</v>
       </c>
       <c r="CV13" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CW13" s="197">
         <v>75</v>
@@ -18321,7 +18321,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="197">
-        <v>168.42</v>
+        <v>160</v>
       </c>
       <c r="M14" s="197">
         <v>114.29</v>
@@ -18345,7 +18345,7 @@
         <v>5</v>
       </c>
       <c r="T14" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="U14" s="197">
         <v>125</v>
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
       <c r="AB14" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="AC14" s="197">
         <v>50</v>
@@ -18393,7 +18393,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="197">
-        <v>163.16</v>
+        <v>165</v>
       </c>
       <c r="AK14" s="197">
         <v>175</v>
@@ -18429,7 +18429,7 @@
         <v>100</v>
       </c>
       <c r="AV14" s="197">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AW14" s="197">
         <v>60</v>
@@ -18441,7 +18441,7 @@
         <v>187</v>
       </c>
       <c r="AZ14" s="197">
-        <v>459.3</v>
+        <v>436.33</v>
       </c>
       <c r="BA14" s="197">
         <v>311.67</v>
@@ -18453,7 +18453,7 @@
         <v>100</v>
       </c>
       <c r="BD14" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE14" s="197">
         <v>5</v>
@@ -18465,7 +18465,7 @@
         <v>3</v>
       </c>
       <c r="BH14" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="BI14" s="197">
         <v>60</v>
@@ -18489,7 +18489,7 @@
         <v>6</v>
       </c>
       <c r="BP14" s="197">
-        <v>884.21</v>
+        <v>840</v>
       </c>
       <c r="BQ14" s="197">
         <v>600</v>
@@ -18513,7 +18513,7 @@
         <v>1</v>
       </c>
       <c r="BX14" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY14" s="197">
         <v>100</v>
@@ -18525,7 +18525,7 @@
         <v>100</v>
       </c>
       <c r="CB14" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC14" s="197">
         <v>8</v>
@@ -18537,7 +18537,7 @@
         <v>17</v>
       </c>
       <c r="CF14" s="197">
-        <v>313.16000000000003</v>
+        <v>297.5</v>
       </c>
       <c r="CG14" s="197">
         <v>212.5</v>
@@ -18561,7 +18561,7 @@
         <v>7</v>
       </c>
       <c r="CN14" s="197">
-        <v>257.89</v>
+        <v>245</v>
       </c>
       <c r="CO14" s="197">
         <v>175</v>
@@ -18585,7 +18585,7 @@
         <v>9</v>
       </c>
       <c r="CV14" s="197">
-        <v>331.58</v>
+        <v>315</v>
       </c>
       <c r="CW14" s="197">
         <v>225</v>
@@ -18609,7 +18609,7 @@
         <v>15</v>
       </c>
       <c r="DD14" s="197">
-        <v>2210.5300000000002</v>
+        <v>2100</v>
       </c>
       <c r="DE14" s="197">
         <v>1500</v>
@@ -18644,7 +18644,7 @@
         <v>128</v>
       </c>
       <c r="H15" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="197">
         <v>8</v>
@@ -18656,7 +18656,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="197">
-        <v>165.79</v>
+        <v>157.5</v>
       </c>
       <c r="M15" s="197">
         <v>112.5</v>
@@ -18680,7 +18680,7 @@
         <v>2</v>
       </c>
       <c r="T15" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="U15" s="197">
         <v>50</v>
@@ -18716,7 +18716,7 @@
         <v>-100</v>
       </c>
       <c r="AF15" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="197">
         <v>5</v>
@@ -18764,7 +18764,7 @@
         <v>100</v>
       </c>
       <c r="AV15" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW15" s="197">
         <v>30</v>
@@ -18776,7 +18776,7 @@
         <v>60</v>
       </c>
       <c r="AZ15" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="BA15" s="197">
         <v>200</v>
@@ -18788,7 +18788,7 @@
         <v>100</v>
       </c>
       <c r="BD15" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE15" s="197">
         <v>5</v>
@@ -18800,7 +18800,7 @@
         <v>3</v>
       </c>
       <c r="BH15" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="BI15" s="197">
         <v>60</v>
@@ -18848,7 +18848,7 @@
         <v>1</v>
       </c>
       <c r="BX15" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY15" s="197">
         <v>100</v>
@@ -18872,7 +18872,7 @@
         <v>11</v>
       </c>
       <c r="CF15" s="197">
-        <v>180.12</v>
+        <v>171.11</v>
       </c>
       <c r="CG15" s="197">
         <v>122.22</v>
@@ -18884,7 +18884,7 @@
         <v>100</v>
       </c>
       <c r="CJ15" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK15" s="197">
         <v>5</v>
@@ -18896,7 +18896,7 @@
         <v>6</v>
       </c>
       <c r="CN15" s="197">
-        <v>176.84</v>
+        <v>168</v>
       </c>
       <c r="CO15" s="197">
         <v>120</v>
@@ -18920,7 +18920,7 @@
         <v>2</v>
       </c>
       <c r="CV15" s="197">
-        <v>98.25</v>
+        <v>93.33</v>
       </c>
       <c r="CW15" s="197">
         <v>66.67</v>
@@ -18944,7 +18944,7 @@
         <v>1</v>
       </c>
       <c r="DD15" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="DE15" s="197">
         <v>100</v>
@@ -18991,7 +18991,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="197">
-        <v>105.26</v>
+        <v>100</v>
       </c>
       <c r="M16" s="197">
         <v>71.430000000000007</v>
@@ -19015,7 +19015,7 @@
         <v>2</v>
       </c>
       <c r="T16" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="U16" s="197">
         <v>50</v>
@@ -19063,7 +19063,7 @@
         <v>5</v>
       </c>
       <c r="AJ16" s="197">
-        <v>15.79</v>
+        <v>25</v>
       </c>
       <c r="AK16" s="197">
         <v>75</v>
@@ -19099,7 +19099,7 @@
         <v>100</v>
       </c>
       <c r="AV16" s="197">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW16" s="197">
         <v>35</v>
@@ -19111,7 +19111,7 @@
         <v>92</v>
       </c>
       <c r="AZ16" s="197">
-        <v>387.37</v>
+        <v>368</v>
       </c>
       <c r="BA16" s="197">
         <v>262.86</v>
@@ -19123,7 +19123,7 @@
         <v>100</v>
       </c>
       <c r="BD16" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE16" s="197">
         <v>5</v>
@@ -19135,7 +19135,7 @@
         <v>2</v>
       </c>
       <c r="BH16" s="197">
-        <v>58.95</v>
+        <v>56</v>
       </c>
       <c r="BI16" s="197">
         <v>40</v>
@@ -19159,7 +19159,7 @@
         <v>2</v>
       </c>
       <c r="BP16" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="BQ16" s="197">
         <v>200</v>
@@ -19183,7 +19183,7 @@
         <v>1</v>
       </c>
       <c r="BX16" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY16" s="197">
         <v>100</v>
@@ -19195,7 +19195,7 @@
         <v>100</v>
       </c>
       <c r="CB16" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC16" s="197">
         <v>8</v>
@@ -19207,7 +19207,7 @@
         <v>6</v>
       </c>
       <c r="CF16" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CG16" s="197">
         <v>75</v>
@@ -19231,7 +19231,7 @@
         <v>4</v>
       </c>
       <c r="CN16" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CO16" s="197">
         <v>100</v>
@@ -19255,7 +19255,7 @@
         <v>7</v>
       </c>
       <c r="CV16" s="197">
-        <v>257.89</v>
+        <v>245</v>
       </c>
       <c r="CW16" s="197">
         <v>175</v>
@@ -19279,7 +19279,7 @@
         <v>9</v>
       </c>
       <c r="DD16" s="197">
-        <v>1326.32</v>
+        <v>1260</v>
       </c>
       <c r="DE16" s="197">
         <v>900</v>
@@ -19326,7 +19326,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="197">
-        <v>105.26</v>
+        <v>100</v>
       </c>
       <c r="M17" s="197">
         <v>71.430000000000007</v>
@@ -19350,7 +19350,7 @@
         <v>6</v>
       </c>
       <c r="T17" s="197">
-        <v>221.05</v>
+        <v>210</v>
       </c>
       <c r="U17" s="197">
         <v>150</v>
@@ -19374,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="AB17" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="AC17" s="197">
         <v>33.33</v>
@@ -19398,7 +19398,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" s="197">
-        <v>163.16</v>
+        <v>165</v>
       </c>
       <c r="AK17" s="197">
         <v>175</v>
@@ -19434,7 +19434,7 @@
         <v>100</v>
       </c>
       <c r="AV17" s="197">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW17" s="197">
         <v>35</v>
@@ -19446,7 +19446,7 @@
         <v>57</v>
       </c>
       <c r="AZ17" s="197">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="BA17" s="197">
         <v>162.86000000000001</v>
@@ -19458,7 +19458,7 @@
         <v>100</v>
       </c>
       <c r="BD17" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE17" s="197">
         <v>5</v>
@@ -19470,7 +19470,7 @@
         <v>6</v>
       </c>
       <c r="BH17" s="197">
-        <v>176.84</v>
+        <v>168</v>
       </c>
       <c r="BI17" s="197">
         <v>120</v>
@@ -19530,7 +19530,7 @@
         <v>100</v>
       </c>
       <c r="CB17" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC17" s="197">
         <v>8</v>
@@ -19542,7 +19542,7 @@
         <v>11</v>
       </c>
       <c r="CF17" s="197">
-        <v>202.63</v>
+        <v>192.5</v>
       </c>
       <c r="CG17" s="197">
         <v>137.5</v>
@@ -19566,7 +19566,7 @@
         <v>6</v>
       </c>
       <c r="CN17" s="197">
-        <v>221.05</v>
+        <v>210</v>
       </c>
       <c r="CO17" s="197">
         <v>150</v>
@@ -19590,7 +19590,7 @@
         <v>5</v>
       </c>
       <c r="CV17" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="CW17" s="197">
         <v>125</v>
@@ -19614,7 +19614,7 @@
         <v>10</v>
       </c>
       <c r="DD17" s="197">
-        <v>1473.68</v>
+        <v>1400</v>
       </c>
       <c r="DE17" s="197">
         <v>1000</v>
@@ -19661,7 +19661,7 @@
         <v>6</v>
       </c>
       <c r="L18" s="197">
-        <v>126.32</v>
+        <v>120</v>
       </c>
       <c r="M18" s="197">
         <v>85.71</v>
@@ -19685,7 +19685,7 @@
         <v>9</v>
       </c>
       <c r="T18" s="197">
-        <v>331.58</v>
+        <v>315</v>
       </c>
       <c r="U18" s="197">
         <v>225</v>
@@ -19709,7 +19709,7 @@
         <v>1</v>
       </c>
       <c r="AB18" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="AC18" s="197">
         <v>33.33</v>
@@ -19721,7 +19721,7 @@
         <v>100</v>
       </c>
       <c r="AF18" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="197">
         <v>5</v>
@@ -19733,7 +19733,7 @@
         <v>3</v>
       </c>
       <c r="AJ18" s="197">
-        <v>111.58</v>
+        <v>116</v>
       </c>
       <c r="AK18" s="197">
         <v>140</v>
@@ -19769,7 +19769,7 @@
         <v>100</v>
       </c>
       <c r="AV18" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW18" s="197">
         <v>30</v>
@@ -19781,7 +19781,7 @@
         <v>66</v>
       </c>
       <c r="AZ18" s="197">
-        <v>324.20999999999998</v>
+        <v>308</v>
       </c>
       <c r="BA18" s="197">
         <v>220</v>
@@ -19793,7 +19793,7 @@
         <v>100</v>
       </c>
       <c r="BD18" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE18" s="197">
         <v>5</v>
@@ -19805,7 +19805,7 @@
         <v>3</v>
       </c>
       <c r="BH18" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="BI18" s="197">
         <v>60</v>
@@ -19865,7 +19865,7 @@
         <v>100</v>
       </c>
       <c r="CB18" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC18" s="197">
         <v>8</v>
@@ -19877,7 +19877,7 @@
         <v>8</v>
       </c>
       <c r="CF18" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CG18" s="197">
         <v>100</v>
@@ -19901,7 +19901,7 @@
         <v>6</v>
       </c>
       <c r="CN18" s="197">
-        <v>221.05</v>
+        <v>210</v>
       </c>
       <c r="CO18" s="197">
         <v>150</v>
@@ -19925,7 +19925,7 @@
         <v>5</v>
       </c>
       <c r="CV18" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="CW18" s="197">
         <v>125</v>
@@ -19949,7 +19949,7 @@
         <v>9</v>
       </c>
       <c r="DD18" s="197">
-        <v>1326.32</v>
+        <v>1260</v>
       </c>
       <c r="DE18" s="197">
         <v>900</v>
@@ -19984,7 +19984,7 @@
         <v>128</v>
       </c>
       <c r="H19" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="197">
         <v>8</v>
@@ -19996,7 +19996,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="M19" s="197">
         <v>100</v>
@@ -20020,7 +20020,7 @@
         <v>2</v>
       </c>
       <c r="T19" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="U19" s="197">
         <v>50</v>
@@ -20056,7 +20056,7 @@
         <v>100</v>
       </c>
       <c r="AF19" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG19" s="197">
         <v>5</v>
@@ -20065,13 +20065,13 @@
         <v>0</v>
       </c>
       <c r="AI19" s="197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="197">
-        <v>170.53</v>
+        <v>144</v>
       </c>
       <c r="AK19" s="197">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AL19" s="197">
         <v>0</v>
@@ -20104,7 +20104,7 @@
         <v>100</v>
       </c>
       <c r="AV19" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" s="197">
         <v>30</v>
@@ -20116,7 +20116,7 @@
         <v>13</v>
       </c>
       <c r="AZ19" s="197">
-        <v>63.86</v>
+        <v>60.67</v>
       </c>
       <c r="BA19" s="197">
         <v>43.33</v>
@@ -20128,7 +20128,7 @@
         <v>100</v>
       </c>
       <c r="BD19" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE19" s="197">
         <v>5</v>
@@ -20140,7 +20140,7 @@
         <v>1</v>
       </c>
       <c r="BH19" s="197">
-        <v>29.47</v>
+        <v>28</v>
       </c>
       <c r="BI19" s="197">
         <v>20</v>
@@ -20224,7 +20224,7 @@
         <v>100</v>
       </c>
       <c r="CJ19" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK19" s="197">
         <v>5</v>
@@ -20236,7 +20236,7 @@
         <v>3</v>
       </c>
       <c r="CN19" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="CO19" s="197">
         <v>60</v>
@@ -20260,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="CV19" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="CW19" s="197">
         <v>33.33</v>
@@ -20284,7 +20284,7 @@
         <v>1</v>
       </c>
       <c r="DD19" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="DE19" s="197">
         <v>100</v>
@@ -20331,7 +20331,7 @@
         <v>6</v>
       </c>
       <c r="L20" s="197">
-        <v>126.32</v>
+        <v>120</v>
       </c>
       <c r="M20" s="197">
         <v>85.71</v>
@@ -20355,7 +20355,7 @@
         <v>5</v>
       </c>
       <c r="T20" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="U20" s="197">
         <v>125</v>
@@ -20439,7 +20439,7 @@
         <v>100</v>
       </c>
       <c r="AV20" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW20" s="197">
         <v>30</v>
@@ -20451,7 +20451,7 @@
         <v>39</v>
       </c>
       <c r="AZ20" s="197">
-        <v>191.58</v>
+        <v>182</v>
       </c>
       <c r="BA20" s="197">
         <v>130</v>
@@ -20463,7 +20463,7 @@
         <v>100</v>
       </c>
       <c r="BD20" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE20" s="197">
         <v>5</v>
@@ -20475,7 +20475,7 @@
         <v>2</v>
       </c>
       <c r="BH20" s="197">
-        <v>58.95</v>
+        <v>56</v>
       </c>
       <c r="BI20" s="197">
         <v>40</v>
@@ -20535,7 +20535,7 @@
         <v>100</v>
       </c>
       <c r="CB20" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC20" s="197">
         <v>8</v>
@@ -20547,7 +20547,7 @@
         <v>4</v>
       </c>
       <c r="CF20" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="CG20" s="197">
         <v>50</v>
@@ -20571,7 +20571,7 @@
         <v>2</v>
       </c>
       <c r="CN20" s="197">
-        <v>73.680000000000007</v>
+        <v>70</v>
       </c>
       <c r="CO20" s="197">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>4</v>
       </c>
       <c r="CV20" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CW20" s="197">
         <v>100</v>
@@ -20619,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="DD20" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="DE20" s="197">
         <v>100</v>
@@ -20654,7 +20654,7 @@
         <v>179</v>
       </c>
       <c r="H21" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="197">
         <v>5</v>
@@ -20666,7 +20666,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="M21" s="197">
         <v>60</v>
@@ -20690,7 +20690,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="U21" s="197">
         <v>100</v>
@@ -20738,7 +20738,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" s="197">
-        <v>150.88</v>
+        <v>153.33000000000001</v>
       </c>
       <c r="AK21" s="197">
         <v>166.67</v>
@@ -20786,7 +20786,7 @@
         <v>15</v>
       </c>
       <c r="AZ21" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="BA21" s="197">
         <v>75</v>
@@ -20798,7 +20798,7 @@
         <v>100</v>
       </c>
       <c r="BD21" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE21" s="197">
         <v>5</v>
@@ -20810,7 +20810,7 @@
         <v>1</v>
       </c>
       <c r="BH21" s="197">
-        <v>29.47</v>
+        <v>28</v>
       </c>
       <c r="BI21" s="197">
         <v>20</v>
@@ -20870,7 +20870,7 @@
         <v>100</v>
       </c>
       <c r="CB21" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC21" s="197">
         <v>8</v>
@@ -20882,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="CF21" s="197">
-        <v>18.420000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="CG21" s="197">
         <v>12.5</v>
@@ -20906,7 +20906,7 @@
         <v>3</v>
       </c>
       <c r="CN21" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="CO21" s="197">
         <v>75</v>
@@ -20930,7 +20930,7 @@
         <v>2</v>
       </c>
       <c r="CV21" s="197">
-        <v>98.25</v>
+        <v>93.33</v>
       </c>
       <c r="CW21" s="197">
         <v>66.67</v>
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="DD21" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="DE21" s="197">
         <v>100</v>
@@ -20989,7 +20989,7 @@
         <v>128</v>
       </c>
       <c r="H22" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="197">
         <v>8</v>
@@ -21001,7 +21001,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="M22" s="197">
         <v>100</v>
@@ -21025,7 +21025,7 @@
         <v>6</v>
       </c>
       <c r="T22" s="197">
-        <v>221.05</v>
+        <v>210</v>
       </c>
       <c r="U22" s="197">
         <v>150</v>
@@ -21061,7 +21061,7 @@
         <v>-100</v>
       </c>
       <c r="AF22" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG22" s="197">
         <v>5</v>
@@ -21109,7 +21109,7 @@
         <v>100</v>
       </c>
       <c r="AV22" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW22" s="197">
         <v>30</v>
@@ -21121,7 +21121,7 @@
         <v>58</v>
       </c>
       <c r="AZ22" s="197">
-        <v>284.91000000000003</v>
+        <v>270.67</v>
       </c>
       <c r="BA22" s="197">
         <v>193.33</v>
@@ -21133,7 +21133,7 @@
         <v>100</v>
       </c>
       <c r="BD22" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE22" s="197">
         <v>5</v>
@@ -21145,7 +21145,7 @@
         <v>3</v>
       </c>
       <c r="BH22" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="BI22" s="197">
         <v>60</v>
@@ -21193,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="BX22" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="BY22" s="197">
         <v>200</v>
@@ -21217,7 +21217,7 @@
         <v>11</v>
       </c>
       <c r="CF22" s="197">
-        <v>180.12</v>
+        <v>171.11</v>
       </c>
       <c r="CG22" s="197">
         <v>122.22</v>
@@ -21229,7 +21229,7 @@
         <v>100</v>
       </c>
       <c r="CJ22" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK22" s="197">
         <v>5</v>
@@ -21241,7 +21241,7 @@
         <v>3</v>
       </c>
       <c r="CN22" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="CO22" s="197">
         <v>60</v>
@@ -21265,7 +21265,7 @@
         <v>4</v>
       </c>
       <c r="CV22" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CW22" s="197">
         <v>100</v>
@@ -21289,7 +21289,7 @@
         <v>2</v>
       </c>
       <c r="DD22" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="DE22" s="197">
         <v>200</v>
@@ -21336,7 +21336,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="197">
-        <v>231.58</v>
+        <v>220</v>
       </c>
       <c r="M23" s="197">
         <v>157.13999999999999</v>
@@ -21360,7 +21360,7 @@
         <v>5</v>
       </c>
       <c r="T23" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="U23" s="197">
         <v>125</v>
@@ -21396,7 +21396,7 @@
         <v>-100</v>
       </c>
       <c r="AF23" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="197">
         <v>5</v>
@@ -21444,7 +21444,7 @@
         <v>100</v>
       </c>
       <c r="AV23" s="197">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AW23" s="197">
         <v>60</v>
@@ -21456,7 +21456,7 @@
         <v>170</v>
       </c>
       <c r="AZ23" s="197">
-        <v>417.54</v>
+        <v>396.67</v>
       </c>
       <c r="BA23" s="197">
         <v>283.33</v>
@@ -21468,7 +21468,7 @@
         <v>100</v>
       </c>
       <c r="BD23" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE23" s="197">
         <v>5</v>
@@ -21480,7 +21480,7 @@
         <v>4</v>
       </c>
       <c r="BH23" s="197">
-        <v>117.89</v>
+        <v>112</v>
       </c>
       <c r="BI23" s="197">
         <v>80</v>
@@ -21528,7 +21528,7 @@
         <v>1</v>
       </c>
       <c r="BX23" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY23" s="197">
         <v>100</v>
@@ -21540,7 +21540,7 @@
         <v>100</v>
       </c>
       <c r="CB23" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC23" s="197">
         <v>8</v>
@@ -21552,7 +21552,7 @@
         <v>21</v>
       </c>
       <c r="CF23" s="197">
-        <v>386.84</v>
+        <v>367.5</v>
       </c>
       <c r="CG23" s="197">
         <v>262.5</v>
@@ -21576,7 +21576,7 @@
         <v>5</v>
       </c>
       <c r="CN23" s="197">
-        <v>184.21</v>
+        <v>175</v>
       </c>
       <c r="CO23" s="197">
         <v>125</v>
@@ -21600,7 +21600,7 @@
         <v>7</v>
       </c>
       <c r="CV23" s="197">
-        <v>257.89</v>
+        <v>245</v>
       </c>
       <c r="CW23" s="197">
         <v>175</v>
@@ -21624,7 +21624,7 @@
         <v>21</v>
       </c>
       <c r="DD23" s="197">
-        <v>3094.74</v>
+        <v>2940</v>
       </c>
       <c r="DE23" s="197">
         <v>2100</v>
@@ -21671,7 +21671,7 @@
         <v>4</v>
       </c>
       <c r="L24" s="197">
-        <v>196.49</v>
+        <v>186.67</v>
       </c>
       <c r="M24" s="197">
         <v>133.33000000000001</v>
@@ -21791,7 +21791,7 @@
         <v>3</v>
       </c>
       <c r="AZ24" s="197">
-        <v>31.58</v>
+        <v>30</v>
       </c>
       <c r="BA24" s="197">
         <v>21.43</v>
@@ -21815,7 +21815,7 @@
         <v>2</v>
       </c>
       <c r="BH24" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BI24" s="197">
         <v>100</v>
@@ -21875,7 +21875,7 @@
         <v>100</v>
       </c>
       <c r="CB24" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC24" s="197">
         <v>5</v>
@@ -21935,7 +21935,7 @@
         <v>2</v>
       </c>
       <c r="CV24" s="197">
-        <v>98.25</v>
+        <v>93.33</v>
       </c>
       <c r="CW24" s="197">
         <v>66.67</v>
@@ -22034,7 +22034,7 @@
       <c r="AT25" s="198"/>
       <c r="AU25" s="198"/>
       <c r="AV25" s="197">
-        <v>923</v>
+        <v>971</v>
       </c>
       <c r="AW25" s="197">
         <v>1360</v>
@@ -22098,7 +22098,7 @@
         <v>100</v>
       </c>
       <c r="CB25" s="197">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CC25" s="197">
         <v>120</v>
@@ -22138,7 +22138,7 @@
       <c r="CX25" s="198"/>
       <c r="CY25" s="198"/>
       <c r="CZ25" s="197">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="DA25" s="197">
         <v>257</v>
@@ -22340,7 +22340,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="197">
-        <v>110.53</v>
+        <v>105</v>
       </c>
       <c r="M27" s="197">
         <v>75</v>
@@ -22364,7 +22364,7 @@
         <v>4</v>
       </c>
       <c r="T27" s="197">
-        <v>294.74</v>
+        <v>280</v>
       </c>
       <c r="U27" s="197">
         <v>200</v>
@@ -22412,7 +22412,7 @@
         <v>1</v>
       </c>
       <c r="AJ27" s="197">
-        <v>126.32</v>
+        <v>130</v>
       </c>
       <c r="AK27" s="197">
         <v>150</v>
@@ -22448,7 +22448,7 @@
         <v>100</v>
       </c>
       <c r="AV27" s="197">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" s="197">
         <v>21</v>
@@ -22460,7 +22460,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" s="197">
-        <v>210.53</v>
+        <v>200</v>
       </c>
       <c r="BA27" s="197">
         <v>142.86000000000001</v>
@@ -22484,7 +22484,7 @@
         <v>1</v>
       </c>
       <c r="BH27" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="BI27" s="197">
         <v>33.33</v>
@@ -22532,7 +22532,7 @@
         <v>1</v>
       </c>
       <c r="BX27" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY27" s="197">
         <v>100</v>
@@ -22556,7 +22556,7 @@
         <v>6</v>
       </c>
       <c r="CF27" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CG27" s="197">
         <v>100</v>
@@ -22580,7 +22580,7 @@
         <v>2</v>
       </c>
       <c r="CN27" s="197">
-        <v>98.25</v>
+        <v>93.33</v>
       </c>
       <c r="CO27" s="197">
         <v>66.67</v>
@@ -22604,7 +22604,7 @@
         <v>1</v>
       </c>
       <c r="CV27" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="CW27" s="197">
         <v>33.33</v>
@@ -22628,7 +22628,7 @@
         <v>3</v>
       </c>
       <c r="DD27" s="197">
-        <v>442.11</v>
+        <v>420</v>
       </c>
       <c r="DE27" s="197">
         <v>300</v>
@@ -22663,7 +22663,7 @@
         <v>128</v>
       </c>
       <c r="H28" s="197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="197">
         <v>8</v>
@@ -22675,7 +22675,7 @@
         <v>7</v>
       </c>
       <c r="L28" s="197">
-        <v>128.94999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="M28" s="197">
         <v>87.5</v>
@@ -22699,7 +22699,7 @@
         <v>6</v>
       </c>
       <c r="T28" s="197">
-        <v>221.05</v>
+        <v>210</v>
       </c>
       <c r="U28" s="197">
         <v>150</v>
@@ -22729,13 +22729,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="197">
         <v>-100</v>
       </c>
       <c r="AF28" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" s="197">
         <v>5</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="AI28" s="197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="197">
-        <v>170.53</v>
+        <v>116</v>
       </c>
       <c r="AK28" s="197">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AL28" s="197">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>1</v>
       </c>
       <c r="AR28" s="197">
-        <v>36.840000000000003</v>
+        <v>35</v>
       </c>
       <c r="AS28" s="197">
         <v>25</v>
@@ -22783,7 +22783,7 @@
         <v>100</v>
       </c>
       <c r="AV28" s="197">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW28" s="197">
         <v>30</v>
@@ -22795,7 +22795,7 @@
         <v>21</v>
       </c>
       <c r="AZ28" s="197">
-        <v>103.16</v>
+        <v>98</v>
       </c>
       <c r="BA28" s="197">
         <v>70</v>
@@ -22807,7 +22807,7 @@
         <v>100</v>
       </c>
       <c r="BD28" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE28" s="197">
         <v>5</v>
@@ -22819,7 +22819,7 @@
         <v>5</v>
       </c>
       <c r="BH28" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BI28" s="197">
         <v>100</v>
@@ -22867,7 +22867,7 @@
         <v>1</v>
       </c>
       <c r="BX28" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="BY28" s="197">
         <v>100</v>
@@ -22891,7 +22891,7 @@
         <v>12</v>
       </c>
       <c r="CF28" s="197">
-        <v>196.49</v>
+        <v>186.67</v>
       </c>
       <c r="CG28" s="197">
         <v>133.33000000000001</v>
@@ -22903,7 +22903,7 @@
         <v>100</v>
       </c>
       <c r="CJ28" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK28" s="197">
         <v>5</v>
@@ -22915,7 +22915,7 @@
         <v>6</v>
       </c>
       <c r="CN28" s="197">
-        <v>176.84</v>
+        <v>168</v>
       </c>
       <c r="CO28" s="197">
         <v>120</v>
@@ -22939,7 +22939,7 @@
         <v>4</v>
       </c>
       <c r="CV28" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="CW28" s="197">
         <v>100</v>
@@ -22963,7 +22963,7 @@
         <v>1</v>
       </c>
       <c r="DD28" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="DE28" s="197">
         <v>100</v>
@@ -23010,7 +23010,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="197">
-        <v>98.25</v>
+        <v>93.33</v>
       </c>
       <c r="M29" s="197">
         <v>66.67</v>
@@ -23034,7 +23034,7 @@
         <v>2</v>
       </c>
       <c r="T29" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="U29" s="197">
         <v>100</v>
@@ -23130,7 +23130,7 @@
         <v>13</v>
       </c>
       <c r="AZ29" s="197">
-        <v>136.84</v>
+        <v>130</v>
       </c>
       <c r="BA29" s="197">
         <v>92.86</v>
@@ -23214,7 +23214,7 @@
         <v>-100</v>
       </c>
       <c r="CB29" s="197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC29" s="197">
         <v>5</v>
@@ -23226,7 +23226,7 @@
         <v>3</v>
       </c>
       <c r="CF29" s="197">
-        <v>88.42</v>
+        <v>84</v>
       </c>
       <c r="CG29" s="197">
         <v>60</v>
@@ -23250,7 +23250,7 @@
         <v>1</v>
       </c>
       <c r="CN29" s="197">
-        <v>49.12</v>
+        <v>46.67</v>
       </c>
       <c r="CO29" s="197">
         <v>33.33</v>
@@ -23274,7 +23274,7 @@
         <v>4</v>
       </c>
       <c r="CV29" s="197">
-        <v>196.49</v>
+        <v>186.67</v>
       </c>
       <c r="CW29" s="197">
         <v>133.33000000000001</v>
@@ -23298,7 +23298,7 @@
         <v>1</v>
       </c>
       <c r="DD29" s="197">
-        <v>147.37</v>
+        <v>140</v>
       </c>
       <c r="DE29" s="197">
         <v>100</v>
@@ -28877,7 +28877,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28907,44 +28907,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="262"/>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
+      <c r="A1" s="268"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
     </row>
     <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="263"/>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
+      <c r="A2" s="269"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="264"/>
-      <c r="B3" s="264"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="133"/>
       <c r="D3" s="133"/>
       <c r="E3" s="133"/>
@@ -28961,10 +28961,10 @@
       <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="271" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="266" t="s">
+      <c r="B4" s="271" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="141"/>
@@ -28972,68 +28972,68 @@
       <c r="E4" s="141"/>
       <c r="F4" s="141"/>
       <c r="G4" s="141"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="265"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="265"/>
-      <c r="M4" s="265"/>
-      <c r="N4" s="265"/>
-      <c r="O4" s="265"/>
-      <c r="P4" s="265"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="264"/>
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A5" s="269"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="266" t="s">
+      <c r="A5" s="273"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="271" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="266" t="s">
+      <c r="D5" s="271" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="267"/>
-      <c r="F5" s="266" t="s">
+      <c r="E5" s="263"/>
+      <c r="F5" s="271" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="267"/>
-      <c r="H5" s="266" t="s">
+      <c r="G5" s="263"/>
+      <c r="H5" s="271" t="s">
         <v>259</v>
       </c>
-      <c r="I5" s="267"/>
-      <c r="J5" s="266" t="s">
+      <c r="I5" s="263"/>
+      <c r="J5" s="271" t="s">
         <v>260</v>
       </c>
-      <c r="K5" s="267"/>
-      <c r="L5" s="270" t="s">
+      <c r="K5" s="263"/>
+      <c r="L5" s="262" t="s">
         <v>261</v>
       </c>
-      <c r="M5" s="267"/>
-      <c r="N5" s="265" t="s">
+      <c r="M5" s="263"/>
+      <c r="N5" s="264" t="s">
         <v>262</v>
       </c>
-      <c r="O5" s="271"/>
-      <c r="P5" s="266" t="s">
+      <c r="O5" s="265"/>
+      <c r="P5" s="271" t="s">
         <v>266</v>
       </c>
-      <c r="R5" s="273" t="s">
+      <c r="R5" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="273" t="s">
+      <c r="S5" s="267" t="s">
         <v>290</v>
       </c>
-      <c r="T5" s="273" t="s">
+      <c r="T5" s="267" t="s">
         <v>291</v>
       </c>
       <c r="U5" s="189"/>
-      <c r="V5" s="272" t="s">
+      <c r="V5" s="266" t="s">
         <v>292</v>
       </c>
       <c r="W5" s="172"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A6" s="268"/>
-      <c r="B6" s="268"/>
-      <c r="C6" s="269"/>
+      <c r="A6" s="272"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="134" t="s">
         <v>2</v>
       </c>
@@ -29070,12 +29070,12 @@
       <c r="O6" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="268"/>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
-      <c r="T6" s="273"/>
+      <c r="P6" s="272"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="U6" s="189"/>
-      <c r="V6" s="273"/>
+      <c r="V6" s="267"/>
       <c r="W6" s="172"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -30349,10 +30349,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:B3"/>
@@ -30367,6 +30363,10 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="P7:P27">
